--- a/Messung/Ergebnisse/data.xlsx
+++ b/Messung/Ergebnisse/data.xlsx
@@ -456,7 +456,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -464,453 +464,453 @@
   <cols>
     <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
     <col width="13.2" customWidth="1" min="2" max="2"/>
-    <col width="45.6" customWidth="1" min="3" max="3"/>
+    <col width="45.6" customWidth="1" min="3" max="4"/>
     <col width="25.2" customWidth="1" min="4" max="4"/>
     <col width="26.4" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Dateiname</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Abstand der Kamera zum Schamottstein</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Schmiedeteilhöhe</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Dornhöhe</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161.csv</t>
+          <t>162.csv</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>0.5385889930007732</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02265717598455697</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01379502784822595</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163.csv</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5385489648523423</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01877891785305408</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01089493474605785</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164.csv</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5381854082525108</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01700924223473954</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.008422488147414753</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165.csv</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5382726010860214</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01762506968373756</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.009224414876554676</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166.csv</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5381259349560019</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01722751761856078</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.008669790384697618</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167.csv</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5375015469722826</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0156842916015254</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.007756045195746242</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168.csv</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5383915697681222</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01752849056828865</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0101226227170006</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169.csv</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5381058687437512</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0175992450367356</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.008919106522269682</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>170.csv</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5380019708074254</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02270380831547125</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01294219122405837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>171.csv</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5380998500963537</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01802318229682076</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.009104484478975827</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>172.csv</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5378901704568798</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01615904147650626</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.007613902763919267</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>173.csv</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5383387561543534</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01855263001627083</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.009195619414622658</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>174.csv</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5374491395982536</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01718344990734577</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.008343649774897988</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>175.csv</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.538105845451355</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01707208403907867</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.008513838052749634</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>176.csv</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5380079002850118</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01780000991353015</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.008918687065552988</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>177.csv</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.538145206191323</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01774010483225874</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.008896503419438151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>178.csv</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.537175620926751</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01659990781641685</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.007205083055628614</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>179.csv</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5358178883378956</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01493515280103852</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.009416229703332446</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>180.csv</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5376850731603868</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02098026477194925</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01208605720186151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>181.csv</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5381322811031493</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01691673983054509</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01017889231285973</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>182.csv</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5379804724412</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01856517568094007</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.007669610131256999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>300.csv</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>0.5385123060076638</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D23" t="n">
         <v>0.01870297513782271</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E23" t="n">
         <v>0.009973805495267163</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162.csv</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5385889930007732</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02265717598455697</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01379502784822595</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>163.csv</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5385489648523423</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01877891785305408</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01089493474605785</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164.csv</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5381854082525108</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01700924223473954</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.008422488147414753</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>165.csv</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5382726010860214</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01762506968373756</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.009224414876554676</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166.csv</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5381259349560019</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01722751761856078</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.008669790384697618</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>167.csv</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5375015469722826</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0156842916015254</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.007756045195746242</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>168.csv</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5383915697681222</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01752849056828865</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0101226227170006</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>169.csv</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5381058687437512</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0175992450367356</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.008919106522269682</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>170.csv</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5380019708074254</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.02270380831547125</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.01294219122405837</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>171.csv</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5380998500963537</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01802318229682076</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.009104484478975827</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>172.csv</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5378901704568798</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.01615904147650626</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.007613902763919267</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>173.csv</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5383387561543534</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01855263001627083</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.009195619414622658</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>174.csv</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5374491395982536</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.01718344990734577</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.008343649774897988</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>175.csv</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.538105845451355</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.01707208403907867</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.008513838052749634</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>176.csv</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5380079002850118</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.01780000991353015</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.008918687065552988</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>177.csv</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.538145206191323</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.01774010483225874</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.008896503419438151</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>178.csv</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.537175620926751</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.01659990781641685</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.007205083055628614</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>179.csv</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5358178883378956</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.01493515280103852</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.009416229703332446</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>180.csv</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5376850731603868</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.02098026477194925</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01208605720186151</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>181.csv</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5381322811031493</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.01691673983054509</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.01017889231285973</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>182.csv</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5379804724412</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.01856517568094007</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.007669610131256999</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1081,49 +1081,49 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18239</v>
+        <v>18343</v>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>661.7669222151502</v>
+        <v>1352.941788710556</v>
       </c>
       <c r="G2" t="n">
-        <v>80.13467670814042</v>
+        <v>76.21280433511667</v>
       </c>
       <c r="H2" t="n">
-        <v>79.40403012442127</v>
+        <v>78.63841300535</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8900529652439405</v>
+        <v>0.8911012372047</v>
       </c>
       <c r="K2" t="n">
-        <v>507.8721452951431</v>
+        <v>509.0437183380127</v>
       </c>
       <c r="L2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M2" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="N2" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O2" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="P2" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q2" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="R2" t="n">
         <v>7</v>
@@ -1135,7 +1135,7 @@
         <v>28.86173937932362</v>
       </c>
       <c r="U2" t="n">
-        <v>44.18284143909011</v>
+        <v>88.61598701051092</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1157,61 +1157,61 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17233</v>
+        <v>16806</v>
       </c>
       <c r="D3" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>658.6666666666666</v>
+        <v>1366.888888888889</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8798787685441517</v>
+        <v>0.8862885287359238</v>
       </c>
       <c r="K3" t="n">
-        <v>496.4579319953918</v>
+        <v>488.4579331874847</v>
       </c>
       <c r="L3" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M3" t="n">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="N3" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O3" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="P3" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="n">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="R3" t="n">
-        <v>8.062257748298549</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
         <v>32.2490309931942</v>
       </c>
       <c r="T3" t="n">
-        <v>24.18677324489565</v>
+        <v>22.3606797749979</v>
       </c>
       <c r="U3" t="n">
-        <v>40.02061405911177</v>
+        <v>107.8542682370293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1233,61 +1233,61 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17417</v>
+        <v>17032</v>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F4" t="n">
-        <v>667.6365893953156</v>
+        <v>1307.169423641191</v>
       </c>
       <c r="G4" t="n">
-        <v>89.68665867306026</v>
+        <v>85.72143203243949</v>
       </c>
       <c r="H4" t="n">
-        <v>75.05997601918082</v>
+        <v>76.16429609731846</v>
       </c>
       <c r="I4" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8873941339305155</v>
+        <v>0.8909335828665226</v>
       </c>
       <c r="K4" t="n">
-        <v>497.0437180995941</v>
+        <v>490.4579323530197</v>
       </c>
       <c r="L4" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M4" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="N4" t="n">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O4" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="P4" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q4" t="n">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="R4" t="n">
-        <v>5.385164807134504</v>
+        <v>6.082762530298219</v>
       </c>
       <c r="S4" t="n">
         <v>30.4138126514911</v>
       </c>
       <c r="T4" t="n">
-        <v>25.17935662402834</v>
+        <v>24.33105012119288</v>
       </c>
       <c r="U4" t="n">
-        <v>20.50303959884452</v>
+        <v>111.2776915617461</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1309,61 +1309,61 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16456</v>
+        <v>16785</v>
       </c>
       <c r="D5" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E5" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>865.9962890875714</v>
+        <v>1800.339611067218</v>
       </c>
       <c r="G5" t="n">
-        <v>80.09371829870572</v>
+        <v>76.75932335727117</v>
       </c>
       <c r="H5" t="n">
-        <v>87.28115489611719</v>
+        <v>88.2779700718135</v>
       </c>
       <c r="I5" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>0.882351449944656</v>
+        <v>0.8857811483260142</v>
       </c>
       <c r="K5" t="n">
-        <v>484.5168068408966</v>
+        <v>488.4163022041321</v>
       </c>
       <c r="L5" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M5" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="N5" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O5" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="P5" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q5" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="R5" t="n">
-        <v>16.0312195418814</v>
+        <v>16.1245154965971</v>
       </c>
       <c r="S5" t="n">
         <v>35</v>
       </c>
       <c r="T5" t="n">
-        <v>45.80392996239515</v>
+        <v>45.22167621838005</v>
       </c>
       <c r="U5" t="n">
-        <v>109.4009339838051</v>
+        <v>166.5781649321138</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1385,61 +1385,61 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15414</v>
+        <v>15801</v>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>784.4326573672503</v>
+        <v>1657.534878939165</v>
       </c>
       <c r="G6" t="n">
-        <v>80.75828549422086</v>
+        <v>77.18461712712472</v>
       </c>
       <c r="H6" t="n">
-        <v>89.27485648266257</v>
+        <v>90.55385138137417</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8838998495539702</v>
+        <v>0.8874194637833448</v>
       </c>
       <c r="K6" t="n">
-        <v>468.374671459198</v>
+        <v>473.3452346324921</v>
       </c>
       <c r="L6" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M6" t="n">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N6" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q6" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="R6" t="n">
         <v>17.0293863659264</v>
       </c>
       <c r="S6" t="n">
-        <v>34.13209633175202</v>
+        <v>32.4499614791759</v>
       </c>
       <c r="T6" t="n">
         <v>44.82186966202994</v>
       </c>
       <c r="U6" t="n">
-        <v>107.278123664581</v>
+        <v>171.1859032243683</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1461,49 +1461,49 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16060</v>
+        <v>16133</v>
       </c>
       <c r="D7" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
-        <v>82.461459506861</v>
+        <v>420.3341573424796</v>
       </c>
       <c r="G7" t="n">
-        <v>81.05268990288441</v>
+        <v>77.35415853499747</v>
       </c>
       <c r="H7" t="n">
-        <v>79.1580697086532</v>
+        <v>80.06247560499239</v>
       </c>
       <c r="I7" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8729337189397897</v>
+        <v>0.8754243457727197</v>
       </c>
       <c r="K7" t="n">
-        <v>481.5878772735596</v>
+        <v>481.9310194253922</v>
       </c>
       <c r="L7" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M7" t="n">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="N7" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O7" t="n">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P7" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R7" t="n">
         <v>6</v>
@@ -1515,7 +1515,7 @@
         <v>37.64306044943742</v>
       </c>
       <c r="U7" t="n">
-        <v>44.43801920430634</v>
+        <v>114.3333353722855</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1537,61 +1537,61 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17798</v>
+        <v>17825</v>
       </c>
       <c r="D8" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>760.5879646252665</v>
+        <v>1639.270868660624</v>
       </c>
       <c r="G8" t="n">
-        <v>85.84139659108574</v>
+        <v>82.80134337480709</v>
       </c>
       <c r="H8" t="n">
-        <v>77.52418977325722</v>
+        <v>79.40403012442127</v>
       </c>
       <c r="I8" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8695954354937498</v>
+        <v>0.8701053815841958</v>
       </c>
       <c r="K8" t="n">
-        <v>507.3868643045425</v>
+        <v>507.6295057535172</v>
       </c>
       <c r="L8" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M8" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="N8" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O8" t="n">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="P8" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q8" t="n">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="R8" t="n">
-        <v>2.23606797749979</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="S8" t="n">
         <v>35.4682957019364</v>
       </c>
       <c r="T8" t="n">
-        <v>35.73513677041127</v>
+        <v>36.05551275463989</v>
       </c>
       <c r="U8" t="n">
-        <v>32.02671288452838</v>
+        <v>63.74213528891063</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1613,61 +1613,61 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18476</v>
+        <v>18473</v>
       </c>
       <c r="D9" t="n">
+        <v>129</v>
+      </c>
+      <c r="E9" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1215.021343052471</v>
+      </c>
+      <c r="G9" t="n">
+        <v>84.17033517584564</v>
+      </c>
+      <c r="H9" t="n">
+        <v>79.51100552753688</v>
+      </c>
+      <c r="I9" t="n">
+        <v>44</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8729695434368266</v>
+      </c>
+      <c r="K9" t="n">
+        <v>515.9726518392563</v>
+      </c>
+      <c r="L9" t="n">
+        <v>138</v>
+      </c>
+      <c r="M9" t="n">
         <v>123</v>
       </c>
-      <c r="E9" t="n">
-        <v>65</v>
-      </c>
-      <c r="F9" t="n">
-        <v>616.4228181530697</v>
-      </c>
-      <c r="G9" t="n">
-        <v>88.7200307062255</v>
-      </c>
-      <c r="H9" t="n">
-        <v>78.16009211867653</v>
-      </c>
-      <c r="I9" t="n">
-        <v>65</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8739092801465865</v>
-      </c>
-      <c r="K9" t="n">
-        <v>515.7300114631653</v>
-      </c>
-      <c r="L9" t="n">
-        <v>128</v>
-      </c>
-      <c r="M9" t="n">
-        <v>143</v>
-      </c>
       <c r="N9" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O9" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="P9" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>32.20248437620923</v>
       </c>
       <c r="T9" t="n">
-        <v>31.38470965295043</v>
+        <v>31.78049716414141</v>
       </c>
       <c r="U9" t="n">
-        <v>100.4102928236402</v>
+        <v>38.23420451418448</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1689,61 +1689,61 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15569</v>
+        <v>15740</v>
       </c>
       <c r="D10" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E10" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>453.8999440891841</v>
+        <v>1346.331907379388</v>
       </c>
       <c r="G10" t="n">
-        <v>86.27147108156602</v>
+        <v>84.11699051095808</v>
       </c>
       <c r="H10" t="n">
-        <v>88.81441324469807</v>
+        <v>91.35097153287424</v>
       </c>
       <c r="I10" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8877248139032894</v>
+        <v>0.8895017145510644</v>
       </c>
       <c r="K10" t="n">
-        <v>469.7888857126236</v>
+        <v>471.9310203790665</v>
       </c>
       <c r="L10" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="N10" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O10" t="n">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="P10" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q10" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R10" t="n">
-        <v>18.11077027627483</v>
+        <v>18.02775637731995</v>
       </c>
       <c r="S10" t="n">
         <v>34.53983207834109</v>
       </c>
       <c r="T10" t="n">
-        <v>46.01086828130936</v>
+        <v>45.27692569068709</v>
       </c>
       <c r="U10" t="n">
-        <v>98.34366774179095</v>
+        <v>167.6948458094477</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1765,61 +1765,61 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15030</v>
+        <v>14811</v>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E11" t="n">
-        <v>57.72347875864725</v>
+        <v>56.08921464952063</v>
       </c>
       <c r="F11" t="n">
-        <v>571.2780457306322</v>
+        <v>1079.971286064897</v>
       </c>
       <c r="G11" t="n">
-        <v>85.24115958621574</v>
+        <v>82.69640488317354</v>
       </c>
       <c r="H11" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I11" t="n">
-        <v>57.72347875864725</v>
+        <v>56.08921464952063</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8809638755930115</v>
+        <v>0.8848280913436711</v>
       </c>
       <c r="K11" t="n">
-        <v>463.2030985355377</v>
+        <v>458.85995221138</v>
       </c>
       <c r="L11" t="n">
+        <v>140</v>
+      </c>
+      <c r="M11" t="n">
+        <v>118</v>
+      </c>
+      <c r="N11" t="n">
+        <v>136</v>
+      </c>
+      <c r="O11" t="n">
+        <v>135</v>
+      </c>
+      <c r="P11" t="n">
+        <v>172</v>
+      </c>
+      <c r="Q11" t="n">
         <v>130</v>
       </c>
-      <c r="M11" t="n">
-        <v>138</v>
-      </c>
-      <c r="N11" t="n">
-        <v>125</v>
-      </c>
-      <c r="O11" t="n">
-        <v>155</v>
-      </c>
-      <c r="P11" t="n">
-        <v>162</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>150</v>
-      </c>
       <c r="R11" t="n">
-        <v>17.72004514666935</v>
+        <v>17.46424919657298</v>
       </c>
       <c r="S11" t="n">
         <v>34.17601498127012</v>
       </c>
       <c r="T11" t="n">
-        <v>37.33630940518894</v>
+        <v>36.34556369077249</v>
       </c>
       <c r="U11" t="n">
-        <v>60.06203326678831</v>
+        <v>15.68590592006642</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1841,61 +1841,61 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19912</v>
+        <v>19867</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E12" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>420.6208149765961</v>
+        <v>1204.972295714379</v>
       </c>
       <c r="G12" t="n">
-        <v>80.59391531017341</v>
+        <v>78.13467670814042</v>
       </c>
       <c r="H12" t="n">
-        <v>77.78174593052023</v>
+        <v>79.40403012442127</v>
       </c>
       <c r="I12" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J12" t="n">
-        <v>0.891313577715159</v>
+        <v>0.8872288150877254</v>
       </c>
       <c r="K12" t="n">
-        <v>530.2152904272079</v>
+        <v>530.801078081131</v>
       </c>
       <c r="L12" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="N12" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="P12" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q12" t="n">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="R12" t="n">
-        <v>3.16227766016838</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>35.4400902933387</v>
       </c>
       <c r="T12" t="n">
-        <v>35.6931365951495</v>
+        <v>34.92849839314596</v>
       </c>
       <c r="U12" t="n">
-        <v>85.13193112324078</v>
+        <v>26.08294572142243</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1917,61 +1917,61 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19349</v>
+        <v>19438</v>
       </c>
       <c r="D13" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
-        <v>342.2339031356228</v>
+        <v>1094.94498230278</v>
       </c>
       <c r="G13" t="n">
-        <v>80.96150997149434</v>
+        <v>78.34999479491934</v>
       </c>
       <c r="H13" t="n">
-        <v>77.88452991448301</v>
+        <v>80.04998438475801</v>
       </c>
       <c r="I13" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>0.88917085998787</v>
+        <v>0.8881949542634862</v>
       </c>
       <c r="K13" t="n">
-        <v>523.3868647813797</v>
+        <v>524.8010777235031</v>
       </c>
       <c r="L13" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="N13" t="n">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O13" t="n">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="P13" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S13" t="n">
         <v>34.88552708502482</v>
       </c>
       <c r="T13" t="n">
-        <v>33.61547262794322</v>
+        <v>33.1058907144937</v>
       </c>
       <c r="U13" t="n">
-        <v>41.191656654138</v>
+        <v>14.50082829915261</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1993,49 +1993,49 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19223</v>
+        <v>19383</v>
       </c>
       <c r="D14" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E14" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>860.6017437088776</v>
+        <v>1550.723819929543</v>
       </c>
       <c r="G14" t="n">
-        <v>92.0021644109046</v>
+        <v>87.67521227084154</v>
       </c>
       <c r="H14" t="n">
-        <v>77.00649323271382</v>
+        <v>78.02563681252464</v>
       </c>
       <c r="I14" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8839990500610122</v>
+        <v>0.8831653636044153</v>
       </c>
       <c r="K14" t="n">
-        <v>523.0437182188034</v>
+        <v>525.5289988517761</v>
       </c>
       <c r="L14" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
+        <v>123</v>
+      </c>
+      <c r="N14" t="n">
         <v>143</v>
       </c>
-      <c r="N14" t="n">
-        <v>133</v>
-      </c>
       <c r="O14" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="P14" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q14" t="n">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="R14" t="n">
         <v>2.23606797749979</v>
@@ -2047,7 +2047,7 @@
         <v>35.17101079013795</v>
       </c>
       <c r="U14" t="n">
-        <v>12.85133784200579</v>
+        <v>57.82567437647621</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2069,67 +2069,67 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15474</v>
+        <v>16055</v>
       </c>
       <c r="D15" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E15" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>787.7580354477274</v>
+        <v>1473.084542322523</v>
       </c>
       <c r="G15" t="n">
-        <v>91.05076586472116</v>
+        <v>85.45709717558559</v>
       </c>
       <c r="H15" t="n">
-        <v>82.15229759416349</v>
+        <v>86.37129152675674</v>
       </c>
       <c r="I15" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8895414548863045</v>
+        <v>0.8913954236996003</v>
       </c>
       <c r="K15" t="n">
-        <v>468.0731548070908</v>
+        <v>476.3157958984375</v>
       </c>
       <c r="L15" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
+        <v>124</v>
+      </c>
+      <c r="N15" t="n">
         <v>144</v>
       </c>
-      <c r="N15" t="n">
-        <v>134</v>
-      </c>
       <c r="O15" t="n">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="P15" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q15" t="n">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="R15" t="n">
-        <v>14</v>
+        <v>15.52417469626002</v>
       </c>
       <c r="S15" t="n">
-        <v>34.9857113690718</v>
+        <v>38.47076812334269</v>
       </c>
       <c r="T15" t="n">
-        <v>43.86342439892262</v>
+        <v>44.59820624195552</v>
       </c>
       <c r="U15" t="n">
-        <v>111.8307167878946</v>
+        <v>165.2511435173566</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>1</v>
@@ -2145,52 +2145,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15725</v>
+        <v>16050</v>
       </c>
       <c r="D16" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E16" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>433.6271756283038</v>
+        <v>1127.9743698236</v>
       </c>
       <c r="G16" t="n">
-        <v>82.2478337569144</v>
+        <v>78.91150505583074</v>
       </c>
       <c r="H16" t="n">
-        <v>81.74350127074322</v>
+        <v>82.73451516749222</v>
       </c>
       <c r="I16" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8839421412168853</v>
+        <v>0.8914842796630934</v>
       </c>
       <c r="K16" t="n">
-        <v>473.3452334403992</v>
+        <v>476.1736617088318</v>
       </c>
       <c r="L16" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M16" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N16" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O16" t="n">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="P16" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q16" t="n">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="R16" t="n">
-        <v>14.31782106327635</v>
+        <v>15.52417469626002</v>
       </c>
       <c r="S16" t="n">
         <v>36.24913792078372</v>
@@ -2199,7 +2199,7 @@
         <v>41.72529209005013</v>
       </c>
       <c r="U16" t="n">
-        <v>63.19521892684115</v>
+        <v>123.7723180860645</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2221,67 +2221,67 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17695</v>
+        <v>17729</v>
       </c>
       <c r="D17" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>984.1646825024944</v>
+        <v>1704.666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>82.72143203243949</v>
+        <v>78</v>
       </c>
       <c r="H17" t="n">
-        <v>76.16429609731846</v>
+        <v>75</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8832640568999257</v>
+        <v>0.8868220489339981</v>
       </c>
       <c r="K17" t="n">
-        <v>502.0731558799744</v>
+        <v>501.5878744125366</v>
       </c>
       <c r="L17" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M17" t="n">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N17" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O17" t="n">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="P17" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q17" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="R17" t="n">
         <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>36.76955262170047</v>
+        <v>35.84689665786984</v>
       </c>
       <c r="T17" t="n">
-        <v>37.57658845611187</v>
+        <v>36.6742416417845</v>
       </c>
       <c r="U17" t="n">
-        <v>97.75411323660963</v>
+        <v>144.0070100955867</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>1</v>
@@ -2297,61 +2297,61 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18568</v>
+        <v>18557</v>
       </c>
       <c r="D18" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>797.8759161680638</v>
+        <v>1568.832460609003</v>
       </c>
       <c r="G18" t="n">
-        <v>83.02082520166412</v>
+        <v>79.07697224471228</v>
       </c>
       <c r="H18" t="n">
-        <v>80.06247560499239</v>
+        <v>80.23091673413684</v>
       </c>
       <c r="I18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8837094676831779</v>
+        <v>0.887477069824135</v>
       </c>
       <c r="K18" t="n">
-        <v>514.3574271202087</v>
+        <v>513.043719291687</v>
       </c>
       <c r="L18" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M18" t="n">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="N18" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O18" t="n">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="P18" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q18" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="R18" t="n">
-        <v>3.605551275463989</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S18" t="n">
-        <v>34.0147027033899</v>
+        <v>34.92849839314596</v>
       </c>
       <c r="T18" t="n">
-        <v>34.78505426185217</v>
+        <v>35.11409973215888</v>
       </c>
       <c r="U18" t="n">
-        <v>15.85788910896613</v>
+        <v>26.88247607083049</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2373,49 +2373,49 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16995</v>
+        <v>17124</v>
       </c>
       <c r="D19" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E19" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F19" t="n">
-        <v>579.2542003074908</v>
+        <v>1290.680856306628</v>
       </c>
       <c r="G19" t="n">
-        <v>84.95143200495509</v>
+        <v>81.08423075436251</v>
       </c>
       <c r="H19" t="n">
-        <v>78.85429601486528</v>
+        <v>81.25269226308751</v>
       </c>
       <c r="I19" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8895502822041982</v>
+        <v>0.8847054666288666</v>
       </c>
       <c r="K19" t="n">
-        <v>490.55843770504</v>
+        <v>493.7300100326538</v>
       </c>
       <c r="L19" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M19" t="n">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="N19" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O19" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="P19" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q19" t="n">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="R19" t="n">
         <v>3.605551275463989</v>
@@ -2427,7 +2427,7 @@
         <v>36.05551275463989</v>
       </c>
       <c r="U19" t="n">
-        <v>179.5884651653068</v>
+        <v>143.710667573302</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -2611,49 +2611,49 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18239</v>
+        <v>18343</v>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>661.7669222151502</v>
+        <v>1352.941788710556</v>
       </c>
       <c r="G2" t="n">
-        <v>80.13467670814042</v>
+        <v>76.21280433511667</v>
       </c>
       <c r="H2" t="n">
-        <v>79.40403012442127</v>
+        <v>78.63841300535</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8900529652439405</v>
+        <v>0.8911012372047</v>
       </c>
       <c r="K2" t="n">
-        <v>507.8721452951431</v>
+        <v>509.0437183380127</v>
       </c>
       <c r="L2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M2" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="N2" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O2" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="P2" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q2" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="R2" t="n">
         <v>7</v>
@@ -2665,7 +2665,7 @@
         <v>28.86173937932362</v>
       </c>
       <c r="U2" t="n">
-        <v>44.18284143909011</v>
+        <v>88.61598701051092</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -2687,61 +2687,61 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17233</v>
+        <v>16806</v>
       </c>
       <c r="D3" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>658.6666666666666</v>
+        <v>1366.888888888889</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8798787685441517</v>
+        <v>0.8862885287359238</v>
       </c>
       <c r="K3" t="n">
-        <v>496.4579319953918</v>
+        <v>488.4579331874847</v>
       </c>
       <c r="L3" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M3" t="n">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="N3" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O3" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="P3" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="n">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="R3" t="n">
-        <v>8.062257748298549</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
         <v>32.2490309931942</v>
       </c>
       <c r="T3" t="n">
-        <v>24.18677324489565</v>
+        <v>22.3606797749979</v>
       </c>
       <c r="U3" t="n">
-        <v>40.02061405911177</v>
+        <v>107.8542682370293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2763,61 +2763,61 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17417</v>
+        <v>17032</v>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F4" t="n">
-        <v>667.6365893953156</v>
+        <v>1307.169423641191</v>
       </c>
       <c r="G4" t="n">
-        <v>89.68665867306026</v>
+        <v>85.72143203243949</v>
       </c>
       <c r="H4" t="n">
-        <v>75.05997601918082</v>
+        <v>76.16429609731846</v>
       </c>
       <c r="I4" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8873941339305155</v>
+        <v>0.8909335828665226</v>
       </c>
       <c r="K4" t="n">
-        <v>497.0437180995941</v>
+        <v>490.4579323530197</v>
       </c>
       <c r="L4" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M4" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="N4" t="n">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O4" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="P4" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Q4" t="n">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="R4" t="n">
-        <v>5.385164807134504</v>
+        <v>6.082762530298219</v>
       </c>
       <c r="S4" t="n">
         <v>30.4138126514911</v>
       </c>
       <c r="T4" t="n">
-        <v>25.17935662402834</v>
+        <v>24.33105012119288</v>
       </c>
       <c r="U4" t="n">
-        <v>20.50303959884452</v>
+        <v>111.2776915617461</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2839,61 +2839,61 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16456</v>
+        <v>16785</v>
       </c>
       <c r="D5" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E5" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>865.9962890875714</v>
+        <v>1800.339611067218</v>
       </c>
       <c r="G5" t="n">
-        <v>80.09371829870572</v>
+        <v>76.75932335727117</v>
       </c>
       <c r="H5" t="n">
-        <v>87.28115489611719</v>
+        <v>88.2779700718135</v>
       </c>
       <c r="I5" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>0.882351449944656</v>
+        <v>0.8857811483260142</v>
       </c>
       <c r="K5" t="n">
-        <v>484.5168068408966</v>
+        <v>488.4163022041321</v>
       </c>
       <c r="L5" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M5" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="N5" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O5" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="P5" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q5" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="R5" t="n">
-        <v>16.0312195418814</v>
+        <v>16.1245154965971</v>
       </c>
       <c r="S5" t="n">
         <v>35</v>
       </c>
       <c r="T5" t="n">
-        <v>45.80392996239515</v>
+        <v>45.22167621838005</v>
       </c>
       <c r="U5" t="n">
-        <v>109.4009339838051</v>
+        <v>166.5781649321138</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2915,61 +2915,61 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15414</v>
+        <v>15801</v>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>784.4326573672503</v>
+        <v>1657.534878939165</v>
       </c>
       <c r="G6" t="n">
-        <v>80.75828549422086</v>
+        <v>77.18461712712472</v>
       </c>
       <c r="H6" t="n">
-        <v>89.27485648266257</v>
+        <v>90.55385138137417</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8838998495539702</v>
+        <v>0.8874194637833448</v>
       </c>
       <c r="K6" t="n">
-        <v>468.374671459198</v>
+        <v>473.3452346324921</v>
       </c>
       <c r="L6" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M6" t="n">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N6" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="Q6" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="R6" t="n">
         <v>17.0293863659264</v>
       </c>
       <c r="S6" t="n">
-        <v>34.13209633175202</v>
+        <v>32.4499614791759</v>
       </c>
       <c r="T6" t="n">
         <v>44.82186966202994</v>
       </c>
       <c r="U6" t="n">
-        <v>107.278123664581</v>
+        <v>171.1859032243683</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2991,49 +2991,49 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16060</v>
+        <v>16133</v>
       </c>
       <c r="D7" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
-        <v>82.461459506861</v>
+        <v>420.3341573424796</v>
       </c>
       <c r="G7" t="n">
-        <v>81.05268990288441</v>
+        <v>77.35415853499747</v>
       </c>
       <c r="H7" t="n">
-        <v>79.1580697086532</v>
+        <v>80.06247560499239</v>
       </c>
       <c r="I7" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8729337189397897</v>
+        <v>0.8754243457727197</v>
       </c>
       <c r="K7" t="n">
-        <v>481.5878772735596</v>
+        <v>481.9310194253922</v>
       </c>
       <c r="L7" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M7" t="n">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="N7" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O7" t="n">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P7" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R7" t="n">
         <v>6</v>
@@ -3045,7 +3045,7 @@
         <v>37.64306044943742</v>
       </c>
       <c r="U7" t="n">
-        <v>44.43801920430634</v>
+        <v>114.3333353722855</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -3067,61 +3067,61 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17798</v>
+        <v>17825</v>
       </c>
       <c r="D8" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>760.5879646252665</v>
+        <v>1639.270868660624</v>
       </c>
       <c r="G8" t="n">
-        <v>85.84139659108574</v>
+        <v>82.80134337480709</v>
       </c>
       <c r="H8" t="n">
-        <v>77.52418977325722</v>
+        <v>79.40403012442127</v>
       </c>
       <c r="I8" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8695954354937498</v>
+        <v>0.8701053815841958</v>
       </c>
       <c r="K8" t="n">
-        <v>507.3868643045425</v>
+        <v>507.6295057535172</v>
       </c>
       <c r="L8" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M8" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="N8" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O8" t="n">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="P8" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q8" t="n">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="R8" t="n">
-        <v>2.23606797749979</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="S8" t="n">
         <v>35.4682957019364</v>
       </c>
       <c r="T8" t="n">
-        <v>35.73513677041127</v>
+        <v>36.05551275463989</v>
       </c>
       <c r="U8" t="n">
-        <v>32.02671288452838</v>
+        <v>63.74213528891063</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -3143,61 +3143,61 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18476</v>
+        <v>18473</v>
       </c>
       <c r="D9" t="n">
+        <v>129</v>
+      </c>
+      <c r="E9" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1215.021343052471</v>
+      </c>
+      <c r="G9" t="n">
+        <v>84.17033517584564</v>
+      </c>
+      <c r="H9" t="n">
+        <v>79.51100552753688</v>
+      </c>
+      <c r="I9" t="n">
+        <v>44</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8729695434368266</v>
+      </c>
+      <c r="K9" t="n">
+        <v>515.9726518392563</v>
+      </c>
+      <c r="L9" t="n">
+        <v>138</v>
+      </c>
+      <c r="M9" t="n">
         <v>123</v>
       </c>
-      <c r="E9" t="n">
-        <v>65</v>
-      </c>
-      <c r="F9" t="n">
-        <v>616.4228181530697</v>
-      </c>
-      <c r="G9" t="n">
-        <v>88.7200307062255</v>
-      </c>
-      <c r="H9" t="n">
-        <v>78.16009211867653</v>
-      </c>
-      <c r="I9" t="n">
-        <v>65</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8739092801465865</v>
-      </c>
-      <c r="K9" t="n">
-        <v>515.7300114631653</v>
-      </c>
-      <c r="L9" t="n">
-        <v>128</v>
-      </c>
-      <c r="M9" t="n">
-        <v>143</v>
-      </c>
       <c r="N9" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O9" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="P9" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>32.20248437620923</v>
       </c>
       <c r="T9" t="n">
-        <v>31.38470965295043</v>
+        <v>31.78049716414141</v>
       </c>
       <c r="U9" t="n">
-        <v>100.4102928236402</v>
+        <v>38.23420451418448</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -3219,61 +3219,61 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15569</v>
+        <v>15740</v>
       </c>
       <c r="D10" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E10" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>453.8999440891841</v>
+        <v>1346.331907379388</v>
       </c>
       <c r="G10" t="n">
-        <v>86.27147108156602</v>
+        <v>84.11699051095808</v>
       </c>
       <c r="H10" t="n">
-        <v>88.81441324469807</v>
+        <v>91.35097153287424</v>
       </c>
       <c r="I10" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8877248139032894</v>
+        <v>0.8895017145510644</v>
       </c>
       <c r="K10" t="n">
-        <v>469.7888857126236</v>
+        <v>471.9310203790665</v>
       </c>
       <c r="L10" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="N10" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O10" t="n">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="P10" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="Q10" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R10" t="n">
-        <v>18.11077027627483</v>
+        <v>18.02775637731995</v>
       </c>
       <c r="S10" t="n">
         <v>34.53983207834109</v>
       </c>
       <c r="T10" t="n">
-        <v>46.01086828130936</v>
+        <v>45.27692569068709</v>
       </c>
       <c r="U10" t="n">
-        <v>98.34366774179095</v>
+        <v>167.6948458094477</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -3295,61 +3295,61 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15030</v>
+        <v>14811</v>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E11" t="n">
-        <v>57.72347875864725</v>
+        <v>56.08921464952063</v>
       </c>
       <c r="F11" t="n">
-        <v>571.2780457306322</v>
+        <v>1079.971286064897</v>
       </c>
       <c r="G11" t="n">
-        <v>85.24115958621574</v>
+        <v>82.69640488317354</v>
       </c>
       <c r="H11" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I11" t="n">
-        <v>57.72347875864725</v>
+        <v>56.08921464952063</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8809638755930115</v>
+        <v>0.8848280913436711</v>
       </c>
       <c r="K11" t="n">
-        <v>463.2030985355377</v>
+        <v>458.85995221138</v>
       </c>
       <c r="L11" t="n">
+        <v>140</v>
+      </c>
+      <c r="M11" t="n">
+        <v>118</v>
+      </c>
+      <c r="N11" t="n">
+        <v>136</v>
+      </c>
+      <c r="O11" t="n">
+        <v>135</v>
+      </c>
+      <c r="P11" t="n">
+        <v>172</v>
+      </c>
+      <c r="Q11" t="n">
         <v>130</v>
       </c>
-      <c r="M11" t="n">
-        <v>138</v>
-      </c>
-      <c r="N11" t="n">
-        <v>125</v>
-      </c>
-      <c r="O11" t="n">
-        <v>155</v>
-      </c>
-      <c r="P11" t="n">
-        <v>162</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>150</v>
-      </c>
       <c r="R11" t="n">
-        <v>17.72004514666935</v>
+        <v>17.46424919657298</v>
       </c>
       <c r="S11" t="n">
         <v>34.17601498127012</v>
       </c>
       <c r="T11" t="n">
-        <v>37.33630940518894</v>
+        <v>36.34556369077249</v>
       </c>
       <c r="U11" t="n">
-        <v>60.06203326678831</v>
+        <v>15.68590592006642</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -3371,61 +3371,61 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19912</v>
+        <v>19867</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E12" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>420.6208149765961</v>
+        <v>1204.972295714379</v>
       </c>
       <c r="G12" t="n">
-        <v>80.59391531017341</v>
+        <v>78.13467670814042</v>
       </c>
       <c r="H12" t="n">
-        <v>77.78174593052023</v>
+        <v>79.40403012442127</v>
       </c>
       <c r="I12" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J12" t="n">
-        <v>0.891313577715159</v>
+        <v>0.8872288150877254</v>
       </c>
       <c r="K12" t="n">
-        <v>530.2152904272079</v>
+        <v>530.801078081131</v>
       </c>
       <c r="L12" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="N12" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="P12" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q12" t="n">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="R12" t="n">
-        <v>3.16227766016838</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>35.4400902933387</v>
       </c>
       <c r="T12" t="n">
-        <v>35.6931365951495</v>
+        <v>34.92849839314596</v>
       </c>
       <c r="U12" t="n">
-        <v>85.13193112324078</v>
+        <v>26.08294572142243</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -3447,61 +3447,61 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19349</v>
+        <v>19438</v>
       </c>
       <c r="D13" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
-        <v>342.2339031356228</v>
+        <v>1094.94498230278</v>
       </c>
       <c r="G13" t="n">
-        <v>80.96150997149434</v>
+        <v>78.34999479491934</v>
       </c>
       <c r="H13" t="n">
-        <v>77.88452991448301</v>
+        <v>80.04998438475801</v>
       </c>
       <c r="I13" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>0.88917085998787</v>
+        <v>0.8881949542634862</v>
       </c>
       <c r="K13" t="n">
-        <v>523.3868647813797</v>
+        <v>524.8010777235031</v>
       </c>
       <c r="L13" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="N13" t="n">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O13" t="n">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="P13" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="n">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S13" t="n">
         <v>34.88552708502482</v>
       </c>
       <c r="T13" t="n">
-        <v>33.61547262794322</v>
+        <v>33.1058907144937</v>
       </c>
       <c r="U13" t="n">
-        <v>41.191656654138</v>
+        <v>14.50082829915261</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -3523,49 +3523,49 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19223</v>
+        <v>19383</v>
       </c>
       <c r="D14" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E14" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>860.6017437088776</v>
+        <v>1550.723819929543</v>
       </c>
       <c r="G14" t="n">
-        <v>92.0021644109046</v>
+        <v>87.67521227084154</v>
       </c>
       <c r="H14" t="n">
-        <v>77.00649323271382</v>
+        <v>78.02563681252464</v>
       </c>
       <c r="I14" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8839990500610122</v>
+        <v>0.8831653636044153</v>
       </c>
       <c r="K14" t="n">
-        <v>523.0437182188034</v>
+        <v>525.5289988517761</v>
       </c>
       <c r="L14" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
+        <v>123</v>
+      </c>
+      <c r="N14" t="n">
         <v>143</v>
       </c>
-      <c r="N14" t="n">
-        <v>133</v>
-      </c>
       <c r="O14" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="P14" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q14" t="n">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="R14" t="n">
         <v>2.23606797749979</v>
@@ -3577,7 +3577,7 @@
         <v>35.17101079013795</v>
       </c>
       <c r="U14" t="n">
-        <v>12.85133784200579</v>
+        <v>57.82567437647621</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3599,67 +3599,67 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15474</v>
+        <v>16055</v>
       </c>
       <c r="D15" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E15" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>787.7580354477274</v>
+        <v>1473.084542322523</v>
       </c>
       <c r="G15" t="n">
-        <v>91.05076586472116</v>
+        <v>85.45709717558559</v>
       </c>
       <c r="H15" t="n">
-        <v>82.15229759416349</v>
+        <v>86.37129152675674</v>
       </c>
       <c r="I15" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8895414548863045</v>
+        <v>0.8913954236996003</v>
       </c>
       <c r="K15" t="n">
-        <v>468.0731548070908</v>
+        <v>476.3157958984375</v>
       </c>
       <c r="L15" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
+        <v>124</v>
+      </c>
+      <c r="N15" t="n">
         <v>144</v>
       </c>
-      <c r="N15" t="n">
-        <v>134</v>
-      </c>
       <c r="O15" t="n">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="P15" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q15" t="n">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="R15" t="n">
-        <v>14</v>
+        <v>15.52417469626002</v>
       </c>
       <c r="S15" t="n">
-        <v>34.9857113690718</v>
+        <v>38.47076812334269</v>
       </c>
       <c r="T15" t="n">
-        <v>43.86342439892262</v>
+        <v>44.59820624195552</v>
       </c>
       <c r="U15" t="n">
-        <v>111.8307167878946</v>
+        <v>165.2511435173566</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>1</v>
@@ -3675,52 +3675,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15725</v>
+        <v>16050</v>
       </c>
       <c r="D16" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E16" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>433.6271756283038</v>
+        <v>1127.9743698236</v>
       </c>
       <c r="G16" t="n">
-        <v>82.2478337569144</v>
+        <v>78.91150505583074</v>
       </c>
       <c r="H16" t="n">
-        <v>81.74350127074322</v>
+        <v>82.73451516749222</v>
       </c>
       <c r="I16" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8839421412168853</v>
+        <v>0.8914842796630934</v>
       </c>
       <c r="K16" t="n">
-        <v>473.3452334403992</v>
+        <v>476.1736617088318</v>
       </c>
       <c r="L16" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M16" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N16" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O16" t="n">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="P16" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Q16" t="n">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="R16" t="n">
-        <v>14.31782106327635</v>
+        <v>15.52417469626002</v>
       </c>
       <c r="S16" t="n">
         <v>36.24913792078372</v>
@@ -3729,7 +3729,7 @@
         <v>41.72529209005013</v>
       </c>
       <c r="U16" t="n">
-        <v>63.19521892684115</v>
+        <v>123.7723180860645</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3751,67 +3751,67 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17695</v>
+        <v>17729</v>
       </c>
       <c r="D17" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>984.1646825024944</v>
+        <v>1704.666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>82.72143203243949</v>
+        <v>78</v>
       </c>
       <c r="H17" t="n">
-        <v>76.16429609731846</v>
+        <v>75</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8832640568999257</v>
+        <v>0.8868220489339981</v>
       </c>
       <c r="K17" t="n">
-        <v>502.0731558799744</v>
+        <v>501.5878744125366</v>
       </c>
       <c r="L17" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M17" t="n">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="N17" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O17" t="n">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="P17" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Q17" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="R17" t="n">
         <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>36.76955262170047</v>
+        <v>35.84689665786984</v>
       </c>
       <c r="T17" t="n">
-        <v>37.57658845611187</v>
+        <v>36.6742416417845</v>
       </c>
       <c r="U17" t="n">
-        <v>97.75411323660963</v>
+        <v>144.0070100955867</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>1</v>
@@ -3827,61 +3827,61 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18568</v>
+        <v>18557</v>
       </c>
       <c r="D18" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>797.8759161680638</v>
+        <v>1568.832460609003</v>
       </c>
       <c r="G18" t="n">
-        <v>83.02082520166412</v>
+        <v>79.07697224471228</v>
       </c>
       <c r="H18" t="n">
-        <v>80.06247560499239</v>
+        <v>80.23091673413684</v>
       </c>
       <c r="I18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8837094676831779</v>
+        <v>0.887477069824135</v>
       </c>
       <c r="K18" t="n">
-        <v>514.3574271202087</v>
+        <v>513.043719291687</v>
       </c>
       <c r="L18" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M18" t="n">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="N18" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O18" t="n">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="P18" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q18" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="R18" t="n">
-        <v>3.605551275463989</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S18" t="n">
-        <v>34.0147027033899</v>
+        <v>34.92849839314596</v>
       </c>
       <c r="T18" t="n">
-        <v>34.78505426185217</v>
+        <v>35.11409973215888</v>
       </c>
       <c r="U18" t="n">
-        <v>15.85788910896613</v>
+        <v>26.88247607083049</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3903,49 +3903,49 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16995</v>
+        <v>17124</v>
       </c>
       <c r="D19" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E19" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F19" t="n">
-        <v>579.2542003074908</v>
+        <v>1290.680856306628</v>
       </c>
       <c r="G19" t="n">
-        <v>84.95143200495509</v>
+        <v>81.08423075436251</v>
       </c>
       <c r="H19" t="n">
-        <v>78.85429601486528</v>
+        <v>81.25269226308751</v>
       </c>
       <c r="I19" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8895502822041982</v>
+        <v>0.8847054666288666</v>
       </c>
       <c r="K19" t="n">
-        <v>490.55843770504</v>
+        <v>493.7300100326538</v>
       </c>
       <c r="L19" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M19" t="n">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="N19" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O19" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="P19" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q19" t="n">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="R19" t="n">
         <v>3.605551275463989</v>
@@ -3957,7 +3957,7 @@
         <v>36.05551275463989</v>
       </c>
       <c r="U19" t="n">
-        <v>179.5884651653068</v>
+        <v>143.710667573302</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mittig</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>mittig</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>good</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>falsch</t>
+          <t>korrekt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mittig</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mittig</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>mittig</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>good</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>falsch</t>
+          <t>korrekt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mittig</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/Messung/Ergebnisse/data.xlsx
+++ b/Messung/Ergebnisse/data.xlsx
@@ -497,17 +497,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162.csv</t>
+          <t>1.csv</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5385889930007732</v>
+        <v>0.5385123060076638</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02265717598455697</v>
+        <v>0.01870297513782271</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01379502784822595</v>
+        <v>0.009973805495267163</v>
       </c>
     </row>
     <row r="3">
@@ -516,17 +516,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163.csv</t>
+          <t>162.csv</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5385489648523423</v>
+        <v>0.5385889930007732</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01877891785305408</v>
+        <v>0.02265717598455697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01089493474605785</v>
+        <v>0.01379502784822595</v>
       </c>
     </row>
     <row r="4">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164.csv</t>
+          <t>163.csv</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5381854082525108</v>
+        <v>0.5385489648523423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01700924223473954</v>
+        <v>0.01877891785305408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008422488147414753</v>
+        <v>0.01089493474605785</v>
       </c>
     </row>
     <row r="5">
@@ -554,17 +554,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>165.csv</t>
+          <t>164.csv</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5382726010860214</v>
+        <v>0.5381854082525108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01762506968373756</v>
+        <v>0.01700924223473954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009224414876554676</v>
+        <v>0.008422488147414753</v>
       </c>
     </row>
     <row r="6">
@@ -573,17 +573,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166.csv</t>
+          <t>165.csv</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5381259349560019</v>
+        <v>0.5382726010860214</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01722751761856078</v>
+        <v>0.01762506968373756</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008669790384697618</v>
+        <v>0.009224414876554676</v>
       </c>
     </row>
     <row r="7">
@@ -592,17 +592,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167.csv</t>
+          <t>166.csv</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5375015469722826</v>
+        <v>0.5381259349560019</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0156842916015254</v>
+        <v>0.01722751761856078</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007756045195746242</v>
+        <v>0.008669790384697618</v>
       </c>
     </row>
     <row r="8">
@@ -611,17 +611,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>168.csv</t>
+          <t>167.csv</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5383915697681222</v>
+        <v>0.5375015469722826</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01752849056828865</v>
+        <v>0.0156842916015254</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0101226227170006</v>
+        <v>0.007756045195746242</v>
       </c>
     </row>
     <row r="9">
@@ -630,17 +630,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>169.csv</t>
+          <t>168.csv</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5381058687437512</v>
+        <v>0.5383915697681222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0175992450367356</v>
+        <v>0.01752849056828865</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008919106522269682</v>
+        <v>0.0101226227170006</v>
       </c>
     </row>
     <row r="10">
@@ -649,17 +649,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>170.csv</t>
+          <t>169.csv</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5380019708074254</v>
+        <v>0.5381058687437512</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02270380831547125</v>
+        <v>0.0175992450367356</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01294219122405837</v>
+        <v>0.008919106522269682</v>
       </c>
     </row>
     <row r="11">
@@ -668,17 +668,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>171.csv</t>
+          <t>170.csv</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5380998500963537</v>
+        <v>0.5380019708074254</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01802318229682076</v>
+        <v>0.02270380831547125</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009104484478975827</v>
+        <v>0.01294219122405837</v>
       </c>
     </row>
     <row r="12">
@@ -687,17 +687,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>172.csv</t>
+          <t>171.csv</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5378901704568798</v>
+        <v>0.5380998500963537</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01615904147650626</v>
+        <v>0.01802318229682076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007613902763919267</v>
+        <v>0.009104484478975827</v>
       </c>
     </row>
     <row r="13">
@@ -706,17 +706,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>173.csv</t>
+          <t>172.csv</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5383387561543534</v>
+        <v>0.5378901704568798</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01855263001627083</v>
+        <v>0.01615904147650626</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009195619414622658</v>
+        <v>0.007613902763919267</v>
       </c>
     </row>
     <row r="14">
@@ -725,17 +725,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>174.csv</t>
+          <t>173.csv</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5374491395982536</v>
+        <v>0.5383387561543534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01718344990734577</v>
+        <v>0.01855263001627083</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008343649774897988</v>
+        <v>0.009195619414622658</v>
       </c>
     </row>
     <row r="15">
@@ -744,17 +744,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>175.csv</t>
+          <t>174.csv</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.538105845451355</v>
+        <v>0.5374491395982536</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01707208403907867</v>
+        <v>0.01718344990734577</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008513838052749634</v>
+        <v>0.008343649774897988</v>
       </c>
     </row>
     <row r="16">
@@ -763,17 +763,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>176.csv</t>
+          <t>175.csv</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5380079002850118</v>
+        <v>0.538105845451355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01780000991353015</v>
+        <v>0.01707208403907867</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008918687065552988</v>
+        <v>0.008513838052749634</v>
       </c>
     </row>
     <row r="17">
@@ -782,17 +782,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>177.csv</t>
+          <t>176.csv</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.538145206191323</v>
+        <v>0.5380079002850118</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01774010483225874</v>
+        <v>0.01780000991353015</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008896503419438151</v>
+        <v>0.008918687065552988</v>
       </c>
     </row>
     <row r="18">
@@ -801,17 +801,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>178.csv</t>
+          <t>177.csv</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.537175620926751</v>
+        <v>0.538145206191323</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01659990781641685</v>
+        <v>0.01774010483225874</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007205083055628614</v>
+        <v>0.008896503419438151</v>
       </c>
     </row>
     <row r="19">
@@ -820,17 +820,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>179.csv</t>
+          <t>178.csv</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5358178883378956</v>
+        <v>0.537175620926751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01493515280103852</v>
+        <v>0.01659990781641685</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009416229703332446</v>
+        <v>0.007205083055628614</v>
       </c>
     </row>
     <row r="20">
@@ -839,17 +839,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>180.csv</t>
+          <t>179.csv</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5376850731603868</v>
+        <v>0.5358178883378956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02098026477194925</v>
+        <v>0.01493515280103852</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01208605720186151</v>
+        <v>0.009416229703332446</v>
       </c>
     </row>
     <row r="21">
@@ -858,17 +858,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>181.csv</t>
+          <t>180.csv</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5381322811031493</v>
+        <v>0.5376850731603868</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01691673983054509</v>
+        <v>0.02098026477194925</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01017889231285973</v>
+        <v>0.01208605720186151</v>
       </c>
     </row>
     <row r="22">
@@ -877,17 +877,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>182.csv</t>
+          <t>181.csv</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5379804724412</v>
+        <v>0.5381322811031493</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01856517568094007</v>
+        <v>0.01691673983054509</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007669610131256999</v>
+        <v>0.01017889231285973</v>
       </c>
     </row>
     <row r="23">
@@ -896,17 +896,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>300.csv</t>
+          <t>182.csv</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5385123060076638</v>
+        <v>0.5379804724412</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01870297513782271</v>
+        <v>0.01856517568094007</v>
       </c>
       <c r="E23" t="n">
-        <v>0.009973805495267163</v>
+        <v>0.007669610131256999</v>
       </c>
     </row>
   </sheetData>
@@ -1081,61 +1081,61 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18343</v>
+        <v>18089</v>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>1352.941788710556</v>
+        <v>922.6138932173186</v>
       </c>
       <c r="G2" t="n">
-        <v>76.21280433511667</v>
+        <v>83.76984007853115</v>
       </c>
       <c r="H2" t="n">
-        <v>78.63841300535</v>
+        <v>79.30952023559341</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8911012372047</v>
+        <v>0.8867339940295608</v>
       </c>
       <c r="K2" t="n">
-        <v>509.0437183380127</v>
+        <v>506.7005727291107</v>
       </c>
       <c r="L2" t="n">
         <v>130</v>
       </c>
       <c r="M2" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="N2" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O2" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="P2" t="n">
         <v>165</v>
       </c>
       <c r="Q2" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
         <v>35.6931365951495</v>
       </c>
       <c r="T2" t="n">
-        <v>28.86173937932362</v>
+        <v>27.89265136196271</v>
       </c>
       <c r="U2" t="n">
-        <v>88.61598701051092</v>
+        <v>58.40878686291308</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1157,61 +1157,61 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16806</v>
+        <v>16998</v>
       </c>
       <c r="D3" t="n">
         <v>136</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>1366.888888888889</v>
+        <v>920.8888888888888</v>
       </c>
       <c r="G3" t="n">
-        <v>86.66666666666667</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8862885287359238</v>
+        <v>0.8820535090120658</v>
       </c>
       <c r="K3" t="n">
-        <v>488.4579331874847</v>
+        <v>492.457932472229</v>
       </c>
       <c r="L3" t="n">
         <v>136</v>
       </c>
       <c r="M3" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="N3" t="n">
+        <v>145</v>
+      </c>
+      <c r="O3" t="n">
         <v>146</v>
-      </c>
-      <c r="O3" t="n">
-        <v>124</v>
       </c>
       <c r="P3" t="n">
         <v>168</v>
       </c>
       <c r="Q3" t="n">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="R3" t="n">
-        <v>10</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="S3" t="n">
         <v>32.2490309931942</v>
       </c>
       <c r="T3" t="n">
-        <v>22.3606797749979</v>
+        <v>23.08679276123039</v>
       </c>
       <c r="U3" t="n">
-        <v>107.8542682370293</v>
+        <v>70.30494113113627</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1233,61 +1233,61 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17032</v>
+        <v>17194</v>
       </c>
       <c r="D4" t="n">
         <v>134</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>1307.169423641191</v>
+        <v>864.5966956736544</v>
       </c>
       <c r="G4" t="n">
-        <v>85.72143203243949</v>
+        <v>92.67543707833094</v>
       </c>
       <c r="H4" t="n">
-        <v>76.16429609731846</v>
+        <v>76.02631123499285</v>
       </c>
       <c r="I4" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8909335828665226</v>
+        <v>0.8820484585259358</v>
       </c>
       <c r="K4" t="n">
-        <v>490.4579323530197</v>
+        <v>495.286358833313</v>
       </c>
       <c r="L4" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M4" t="n">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="N4" t="n">
         <v>145</v>
       </c>
       <c r="O4" t="n">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="P4" t="n">
         <v>169</v>
       </c>
       <c r="Q4" t="n">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="R4" t="n">
-        <v>6.082762530298219</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="S4" t="n">
-        <v>30.4138126514911</v>
+        <v>33.24154027718932</v>
       </c>
       <c r="T4" t="n">
-        <v>24.33105012119288</v>
+        <v>24.08318915758459</v>
       </c>
       <c r="U4" t="n">
-        <v>111.2776915617461</v>
+        <v>72.5857166398029</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1309,49 +1309,49 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16785</v>
+        <v>16575</v>
       </c>
       <c r="D5" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>1800.339611067218</v>
+        <v>1266.045563431894</v>
       </c>
       <c r="G5" t="n">
-        <v>76.75932335727117</v>
+        <v>85.00757477955385</v>
       </c>
       <c r="H5" t="n">
-        <v>88.2779700718135</v>
+        <v>88.02272433866155</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8857811483260142</v>
+        <v>0.883974899707713</v>
       </c>
       <c r="K5" t="n">
-        <v>488.4163022041321</v>
+        <v>485.8305140733719</v>
       </c>
       <c r="L5" t="n">
         <v>129</v>
       </c>
       <c r="M5" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="N5" t="n">
         <v>131</v>
       </c>
       <c r="O5" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="P5" t="n">
         <v>157</v>
       </c>
       <c r="Q5" t="n">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="R5" t="n">
         <v>16.1245154965971</v>
@@ -1363,7 +1363,7 @@
         <v>45.22167621838005</v>
       </c>
       <c r="U5" t="n">
-        <v>166.5781649321138</v>
+        <v>130.5993342734477</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1385,61 +1385,61 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15801</v>
+        <v>15558</v>
       </c>
       <c r="D6" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>1657.534878939165</v>
+        <v>1025.526458230947</v>
       </c>
       <c r="G6" t="n">
-        <v>77.18461712712472</v>
+        <v>84.40067263813158</v>
       </c>
       <c r="H6" t="n">
-        <v>90.55385138137417</v>
+        <v>89.20201791439474</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8874194637833448</v>
+        <v>0.8844409595700109</v>
       </c>
       <c r="K6" t="n">
-        <v>473.3452346324921</v>
+        <v>470.5168062448502</v>
       </c>
       <c r="L6" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M6" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="N6" t="n">
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="P6" t="n">
         <v>156</v>
       </c>
       <c r="Q6" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="R6" t="n">
-        <v>17.0293863659264</v>
+        <v>16.0312195418814</v>
       </c>
       <c r="S6" t="n">
-        <v>32.4499614791759</v>
+        <v>34.13209633175202</v>
       </c>
       <c r="T6" t="n">
-        <v>44.82186966202994</v>
+        <v>44.04543109109048</v>
       </c>
       <c r="U6" t="n">
-        <v>171.1859032243683</v>
+        <v>125.4049977215063</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1461,49 +1461,49 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16133</v>
+        <v>15999</v>
       </c>
       <c r="D7" t="n">
         <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>420.3341573424796</v>
+        <v>152.0835737693876</v>
       </c>
       <c r="G7" t="n">
-        <v>77.35415853499747</v>
+        <v>84.05900562242341</v>
       </c>
       <c r="H7" t="n">
-        <v>80.06247560499239</v>
+        <v>79.17701686727027</v>
       </c>
       <c r="I7" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8754243457727197</v>
+        <v>0.8821738567228905</v>
       </c>
       <c r="K7" t="n">
-        <v>481.9310194253922</v>
+        <v>478.1736626625061</v>
       </c>
       <c r="L7" t="n">
         <v>138</v>
       </c>
       <c r="M7" t="n">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="N7" t="n">
         <v>138</v>
       </c>
       <c r="O7" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="P7" t="n">
         <v>167</v>
       </c>
       <c r="Q7" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="R7" t="n">
         <v>6</v>
@@ -1515,7 +1515,7 @@
         <v>37.64306044943742</v>
       </c>
       <c r="U7" t="n">
-        <v>114.3333353722855</v>
+        <v>71.7585496385779</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1537,61 +1537,61 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17825</v>
+        <v>17627</v>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F8" t="n">
-        <v>1639.270868660624</v>
+        <v>1030.534209573584</v>
       </c>
       <c r="G8" t="n">
-        <v>82.80134337480709</v>
+        <v>89.17472992441907</v>
       </c>
       <c r="H8" t="n">
-        <v>79.40403012442127</v>
+        <v>77.52418977325722</v>
       </c>
       <c r="I8" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8701053815841958</v>
+        <v>0.8685961700722244</v>
       </c>
       <c r="K8" t="n">
-        <v>507.6295057535172</v>
+        <v>505.2863570451736</v>
       </c>
       <c r="L8" t="n">
         <v>142</v>
       </c>
       <c r="M8" t="n">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="N8" t="n">
         <v>141</v>
       </c>
       <c r="O8" t="n">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="P8" t="n">
         <v>175</v>
       </c>
       <c r="Q8" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="R8" t="n">
-        <v>1.414213562373095</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S8" t="n">
         <v>35.4682957019364</v>
       </c>
       <c r="T8" t="n">
-        <v>36.05551275463989</v>
+        <v>35.73513677041127</v>
       </c>
       <c r="U8" t="n">
-        <v>63.74213528891063</v>
+        <v>49.93570057145406</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1613,61 +1613,61 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18473</v>
+        <v>18554</v>
       </c>
       <c r="D9" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>1215.021343052471</v>
+        <v>706.6244676309939</v>
       </c>
       <c r="G9" t="n">
-        <v>84.17033517584564</v>
+        <v>90.25727412441063</v>
       </c>
       <c r="H9" t="n">
-        <v>79.51100552753688</v>
+        <v>78.77182237323191</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8729695434368266</v>
+        <v>0.8686962724404709</v>
       </c>
       <c r="K9" t="n">
-        <v>515.9726518392563</v>
+        <v>518.3157958984375</v>
       </c>
       <c r="L9" t="n">
         <v>138</v>
       </c>
       <c r="M9" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="N9" t="n">
         <v>138</v>
       </c>
       <c r="O9" t="n">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="P9" t="n">
         <v>167</v>
       </c>
       <c r="Q9" t="n">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>32.20248437620923</v>
       </c>
       <c r="T9" t="n">
-        <v>31.78049716414141</v>
+        <v>31.38470965295043</v>
       </c>
       <c r="U9" t="n">
-        <v>38.23420451418448</v>
+        <v>68.02659462085664</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1689,49 +1689,49 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15740</v>
+        <v>15423</v>
       </c>
       <c r="D10" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F10" t="n">
-        <v>1346.331907379388</v>
+        <v>620.2326613648095</v>
       </c>
       <c r="G10" t="n">
-        <v>84.11699051095808</v>
+        <v>89.31834827534145</v>
       </c>
       <c r="H10" t="n">
-        <v>91.35097153287424</v>
+        <v>88.95504482602435</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8895017145510644</v>
+        <v>0.8953435483324125</v>
       </c>
       <c r="K10" t="n">
-        <v>471.9310203790665</v>
+        <v>465.688379406929</v>
       </c>
       <c r="L10" t="n">
         <v>133</v>
       </c>
       <c r="M10" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="N10" t="n">
         <v>132</v>
       </c>
       <c r="O10" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="P10" t="n">
         <v>165</v>
       </c>
       <c r="Q10" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="R10" t="n">
         <v>18.02775637731995</v>
@@ -1743,7 +1743,7 @@
         <v>45.27692569068709</v>
       </c>
       <c r="U10" t="n">
-        <v>167.6948458094477</v>
+        <v>117.2792275057473</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1765,49 +1765,49 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14811</v>
+        <v>14817</v>
       </c>
       <c r="D11" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
-        <v>56.08921464952063</v>
+        <v>56.51548460377916</v>
       </c>
       <c r="F11" t="n">
-        <v>1079.971286064897</v>
+        <v>845.0551629347501</v>
       </c>
       <c r="G11" t="n">
-        <v>82.69640488317354</v>
+        <v>88.83849486792639</v>
       </c>
       <c r="H11" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
-        <v>56.08921464952063</v>
+        <v>56.51548460377916</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8848280913436711</v>
+        <v>0.8827220727470135</v>
       </c>
       <c r="K11" t="n">
-        <v>458.85995221138</v>
+        <v>459.4457383155823</v>
       </c>
       <c r="L11" t="n">
         <v>140</v>
       </c>
       <c r="M11" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N11" t="n">
         <v>136</v>
       </c>
       <c r="O11" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P11" t="n">
         <v>172</v>
       </c>
       <c r="Q11" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="R11" t="n">
         <v>17.46424919657298</v>
@@ -1819,7 +1819,7 @@
         <v>36.34556369077249</v>
       </c>
       <c r="U11" t="n">
-        <v>15.68590592006642</v>
+        <v>36.6460025085579</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1841,61 +1841,61 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19867</v>
+        <v>19852</v>
       </c>
       <c r="D12" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F12" t="n">
-        <v>1204.972295714379</v>
+        <v>561.1195741930545</v>
       </c>
       <c r="G12" t="n">
-        <v>78.13467670814042</v>
+        <v>83.36794203493498</v>
       </c>
       <c r="H12" t="n">
-        <v>79.40403012442127</v>
+        <v>77.10382610480494</v>
       </c>
       <c r="I12" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8872288150877254</v>
+        <v>0.891459807874054</v>
       </c>
       <c r="K12" t="n">
-        <v>530.801078081131</v>
+        <v>529.3868643045425</v>
       </c>
       <c r="L12" t="n">
         <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="N12" t="n">
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P12" t="n">
         <v>162</v>
       </c>
       <c r="Q12" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
         <v>35.4400902933387</v>
       </c>
       <c r="T12" t="n">
-        <v>34.92849839314596</v>
+        <v>34.71310991541957</v>
       </c>
       <c r="U12" t="n">
-        <v>26.08294572142243</v>
+        <v>53.03094621516579</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1917,61 +1917,61 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19438</v>
+        <v>19508</v>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F13" t="n">
-        <v>1094.94498230278</v>
+        <v>581.4077306521207</v>
       </c>
       <c r="G13" t="n">
-        <v>78.34999479491934</v>
+        <v>84.77966896224518</v>
       </c>
       <c r="H13" t="n">
-        <v>80.04998438475801</v>
+        <v>78.33900688673555</v>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8881949542634862</v>
+        <v>0.8914344597662289</v>
       </c>
       <c r="K13" t="n">
-        <v>524.8010777235031</v>
+        <v>524.8010778427124</v>
       </c>
       <c r="L13" t="n">
         <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="N13" t="n">
         <v>137</v>
       </c>
       <c r="O13" t="n">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="P13" t="n">
         <v>167</v>
       </c>
       <c r="Q13" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="R13" t="n">
-        <v>2.23606797749979</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="S13" t="n">
         <v>34.88552708502482</v>
       </c>
       <c r="T13" t="n">
-        <v>33.1058907144937</v>
+        <v>32.69556544854363</v>
       </c>
       <c r="U13" t="n">
-        <v>14.50082829915261</v>
+        <v>16.3174241761535</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1993,49 +1993,49 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19383</v>
+        <v>19288</v>
       </c>
       <c r="D14" t="n">
         <v>140</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F14" t="n">
-        <v>1550.723819929543</v>
+        <v>1062.588945066442</v>
       </c>
       <c r="G14" t="n">
-        <v>87.67521227084154</v>
+        <v>94.3419898822023</v>
       </c>
       <c r="H14" t="n">
-        <v>78.02563681252464</v>
+        <v>77.02596964660685</v>
       </c>
       <c r="I14" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8831653636044153</v>
+        <v>0.8841817020999116</v>
       </c>
       <c r="K14" t="n">
-        <v>525.5289988517761</v>
+        <v>523.8721454143524</v>
       </c>
       <c r="L14" t="n">
         <v>142</v>
       </c>
       <c r="M14" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="N14" t="n">
         <v>143</v>
       </c>
       <c r="O14" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="P14" t="n">
         <v>177</v>
       </c>
       <c r="Q14" t="n">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="R14" t="n">
         <v>2.23606797749979</v>
@@ -2047,7 +2047,7 @@
         <v>35.17101079013795</v>
       </c>
       <c r="U14" t="n">
-        <v>57.82567437647621</v>
+        <v>11.76047977580445</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2069,61 +2069,61 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16055</v>
+        <v>15663</v>
       </c>
       <c r="D15" t="n">
         <v>132</v>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F15" t="n">
-        <v>1473.084542322523</v>
+        <v>870.7875603962856</v>
       </c>
       <c r="G15" t="n">
-        <v>85.45709717558559</v>
+        <v>91.79803432683285</v>
       </c>
       <c r="H15" t="n">
-        <v>86.37129152675674</v>
+        <v>81.39410298049853</v>
       </c>
       <c r="I15" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8913954236996003</v>
+        <v>0.8861270081004892</v>
       </c>
       <c r="K15" t="n">
-        <v>476.3157958984375</v>
+        <v>471.8305139541626</v>
       </c>
       <c r="L15" t="n">
         <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="N15" t="n">
         <v>144</v>
       </c>
       <c r="O15" t="n">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="P15" t="n">
         <v>174</v>
       </c>
       <c r="Q15" t="n">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="R15" t="n">
-        <v>15.52417469626002</v>
+        <v>13.60147050873544</v>
       </c>
       <c r="S15" t="n">
-        <v>38.47076812334269</v>
+        <v>38.94868418830089</v>
       </c>
       <c r="T15" t="n">
-        <v>44.59820624195552</v>
+        <v>43.86342439892262</v>
       </c>
       <c r="U15" t="n">
-        <v>165.2511435173566</v>
+        <v>96.77513288681921</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2145,61 +2145,61 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16050</v>
+        <v>15823</v>
       </c>
       <c r="D16" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F16" t="n">
-        <v>1127.9743698236</v>
+        <v>719.1019415752585</v>
       </c>
       <c r="G16" t="n">
-        <v>78.91150505583074</v>
+        <v>86.76730216557046</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73451516749222</v>
+        <v>81.30190649671138</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8914842796630934</v>
+        <v>0.8831330934131006</v>
       </c>
       <c r="K16" t="n">
-        <v>476.1736617088318</v>
+        <v>475.0020875930786</v>
       </c>
       <c r="L16" t="n">
         <v>129</v>
       </c>
       <c r="M16" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N16" t="n">
         <v>133</v>
       </c>
       <c r="O16" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="P16" t="n">
         <v>162</v>
       </c>
       <c r="Q16" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="R16" t="n">
-        <v>15.52417469626002</v>
+        <v>14.56021977856104</v>
       </c>
       <c r="S16" t="n">
         <v>36.24913792078372</v>
       </c>
       <c r="T16" t="n">
-        <v>41.72529209005013</v>
+        <v>41.01219330881975</v>
       </c>
       <c r="U16" t="n">
-        <v>123.7723180860645</v>
+        <v>85.81508387488159</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2221,67 +2221,67 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17729</v>
+        <v>17605</v>
       </c>
       <c r="D17" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
-        <v>1704.666666666667</v>
+        <v>1281.577357841787</v>
       </c>
       <c r="G17" t="n">
-        <v>78</v>
+        <v>86.05476536577282</v>
       </c>
       <c r="H17" t="n">
-        <v>75</v>
+        <v>76.16429609731846</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8868220489339981</v>
+        <v>0.8861221989107978</v>
       </c>
       <c r="K17" t="n">
-        <v>501.5878744125366</v>
+        <v>500.0731557607651</v>
       </c>
       <c r="L17" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M17" t="n">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="N17" t="n">
         <v>130</v>
       </c>
       <c r="O17" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="P17" t="n">
         <v>163</v>
       </c>
       <c r="Q17" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S17" t="n">
-        <v>35.84689665786984</v>
+        <v>36.76955262170047</v>
       </c>
       <c r="T17" t="n">
         <v>36.6742416417845</v>
       </c>
       <c r="U17" t="n">
-        <v>144.0070100955867</v>
+        <v>105.4483118324468</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>1</v>
@@ -2297,61 +2297,61 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18557</v>
+        <v>18558</v>
       </c>
       <c r="D18" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F18" t="n">
-        <v>1568.832460609003</v>
+        <v>955.7842584098006</v>
       </c>
       <c r="G18" t="n">
-        <v>79.07697224471228</v>
+        <v>85.47640458974745</v>
       </c>
       <c r="H18" t="n">
-        <v>80.23091673413684</v>
+        <v>79.42921376924235</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J18" t="n">
-        <v>0.887477069824135</v>
+        <v>0.8908673092550242</v>
       </c>
       <c r="K18" t="n">
-        <v>513.043719291687</v>
+        <v>512.1147867441177</v>
       </c>
       <c r="L18" t="n">
         <v>141</v>
       </c>
       <c r="M18" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="N18" t="n">
         <v>140</v>
       </c>
       <c r="O18" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="P18" t="n">
         <v>173</v>
       </c>
       <c r="Q18" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="R18" t="n">
-        <v>2.23606797749979</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="S18" t="n">
         <v>34.92849839314596</v>
       </c>
       <c r="T18" t="n">
-        <v>35.11409973215888</v>
+        <v>34.78505426185217</v>
       </c>
       <c r="U18" t="n">
-        <v>26.88247607083049</v>
+        <v>5.624160261608375</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -2373,61 +2373,61 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17124</v>
+        <v>16802</v>
       </c>
       <c r="D19" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E19" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F19" t="n">
-        <v>1290.680856306628</v>
+        <v>815.1335424966792</v>
       </c>
       <c r="G19" t="n">
-        <v>81.08423075436251</v>
+        <v>88.28476533828842</v>
       </c>
       <c r="H19" t="n">
-        <v>81.25269226308751</v>
+        <v>78.85429601486528</v>
       </c>
       <c r="I19" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8847054666288666</v>
+        <v>0.8856757334461419</v>
       </c>
       <c r="K19" t="n">
-        <v>493.7300100326538</v>
+        <v>488.8010783195496</v>
       </c>
       <c r="L19" t="n">
         <v>144</v>
       </c>
       <c r="M19" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="N19" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O19" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="P19" t="n">
         <v>175</v>
       </c>
       <c r="Q19" t="n">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="R19" t="n">
-        <v>3.605551275463989</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S19" t="n">
         <v>32.57299494980466</v>
       </c>
       <c r="T19" t="n">
-        <v>36.05551275463989</v>
+        <v>34.78505426185217</v>
       </c>
       <c r="U19" t="n">
-        <v>143.710667573302</v>
+        <v>166.7913346661377</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -2611,61 +2611,61 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18343</v>
+        <v>18089</v>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>1352.941788710556</v>
+        <v>922.6138932173186</v>
       </c>
       <c r="G2" t="n">
-        <v>76.21280433511667</v>
+        <v>83.76984007853115</v>
       </c>
       <c r="H2" t="n">
-        <v>78.63841300535</v>
+        <v>79.30952023559341</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8911012372047</v>
+        <v>0.8867339940295608</v>
       </c>
       <c r="K2" t="n">
-        <v>509.0437183380127</v>
+        <v>506.7005727291107</v>
       </c>
       <c r="L2" t="n">
         <v>130</v>
       </c>
       <c r="M2" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="N2" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O2" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="P2" t="n">
         <v>165</v>
       </c>
       <c r="Q2" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
         <v>35.6931365951495</v>
       </c>
       <c r="T2" t="n">
-        <v>28.86173937932362</v>
+        <v>27.89265136196271</v>
       </c>
       <c r="U2" t="n">
-        <v>88.61598701051092</v>
+        <v>58.40878686291308</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -2687,61 +2687,61 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16806</v>
+        <v>16998</v>
       </c>
       <c r="D3" t="n">
         <v>136</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>1366.888888888889</v>
+        <v>920.8888888888888</v>
       </c>
       <c r="G3" t="n">
-        <v>86.66666666666667</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8862885287359238</v>
+        <v>0.8820535090120658</v>
       </c>
       <c r="K3" t="n">
-        <v>488.4579331874847</v>
+        <v>492.457932472229</v>
       </c>
       <c r="L3" t="n">
         <v>136</v>
       </c>
       <c r="M3" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="N3" t="n">
+        <v>145</v>
+      </c>
+      <c r="O3" t="n">
         <v>146</v>
-      </c>
-      <c r="O3" t="n">
-        <v>124</v>
       </c>
       <c r="P3" t="n">
         <v>168</v>
       </c>
       <c r="Q3" t="n">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="R3" t="n">
-        <v>10</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="S3" t="n">
         <v>32.2490309931942</v>
       </c>
       <c r="T3" t="n">
-        <v>22.3606797749979</v>
+        <v>23.08679276123039</v>
       </c>
       <c r="U3" t="n">
-        <v>107.8542682370293</v>
+        <v>70.30494113113627</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2763,61 +2763,61 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17032</v>
+        <v>17194</v>
       </c>
       <c r="D4" t="n">
         <v>134</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>1307.169423641191</v>
+        <v>864.5966956736544</v>
       </c>
       <c r="G4" t="n">
-        <v>85.72143203243949</v>
+        <v>92.67543707833094</v>
       </c>
       <c r="H4" t="n">
-        <v>76.16429609731846</v>
+        <v>76.02631123499285</v>
       </c>
       <c r="I4" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8909335828665226</v>
+        <v>0.8820484585259358</v>
       </c>
       <c r="K4" t="n">
-        <v>490.4579323530197</v>
+        <v>495.286358833313</v>
       </c>
       <c r="L4" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M4" t="n">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="N4" t="n">
         <v>145</v>
       </c>
       <c r="O4" t="n">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="P4" t="n">
         <v>169</v>
       </c>
       <c r="Q4" t="n">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="R4" t="n">
-        <v>6.082762530298219</v>
+        <v>9.219544457292887</v>
       </c>
       <c r="S4" t="n">
-        <v>30.4138126514911</v>
+        <v>33.24154027718932</v>
       </c>
       <c r="T4" t="n">
-        <v>24.33105012119288</v>
+        <v>24.08318915758459</v>
       </c>
       <c r="U4" t="n">
-        <v>111.2776915617461</v>
+        <v>72.5857166398029</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2839,49 +2839,49 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16785</v>
+        <v>16575</v>
       </c>
       <c r="D5" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>1800.339611067218</v>
+        <v>1266.045563431894</v>
       </c>
       <c r="G5" t="n">
-        <v>76.75932335727117</v>
+        <v>85.00757477955385</v>
       </c>
       <c r="H5" t="n">
-        <v>88.2779700718135</v>
+        <v>88.02272433866155</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8857811483260142</v>
+        <v>0.883974899707713</v>
       </c>
       <c r="K5" t="n">
-        <v>488.4163022041321</v>
+        <v>485.8305140733719</v>
       </c>
       <c r="L5" t="n">
         <v>129</v>
       </c>
       <c r="M5" t="n">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="N5" t="n">
         <v>131</v>
       </c>
       <c r="O5" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="P5" t="n">
         <v>157</v>
       </c>
       <c r="Q5" t="n">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="R5" t="n">
         <v>16.1245154965971</v>
@@ -2893,7 +2893,7 @@
         <v>45.22167621838005</v>
       </c>
       <c r="U5" t="n">
-        <v>166.5781649321138</v>
+        <v>130.5993342734477</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2915,61 +2915,61 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15801</v>
+        <v>15558</v>
       </c>
       <c r="D6" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>1657.534878939165</v>
+        <v>1025.526458230947</v>
       </c>
       <c r="G6" t="n">
-        <v>77.18461712712472</v>
+        <v>84.40067263813158</v>
       </c>
       <c r="H6" t="n">
-        <v>90.55385138137417</v>
+        <v>89.20201791439474</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8874194637833448</v>
+        <v>0.8844409595700109</v>
       </c>
       <c r="K6" t="n">
-        <v>473.3452346324921</v>
+        <v>470.5168062448502</v>
       </c>
       <c r="L6" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M6" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="N6" t="n">
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="P6" t="n">
         <v>156</v>
       </c>
       <c r="Q6" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="R6" t="n">
-        <v>17.0293863659264</v>
+        <v>16.0312195418814</v>
       </c>
       <c r="S6" t="n">
-        <v>32.4499614791759</v>
+        <v>34.13209633175202</v>
       </c>
       <c r="T6" t="n">
-        <v>44.82186966202994</v>
+        <v>44.04543109109048</v>
       </c>
       <c r="U6" t="n">
-        <v>171.1859032243683</v>
+        <v>125.4049977215063</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2991,49 +2991,49 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16133</v>
+        <v>15999</v>
       </c>
       <c r="D7" t="n">
         <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>420.3341573424796</v>
+        <v>152.0835737693876</v>
       </c>
       <c r="G7" t="n">
-        <v>77.35415853499747</v>
+        <v>84.05900562242341</v>
       </c>
       <c r="H7" t="n">
-        <v>80.06247560499239</v>
+        <v>79.17701686727027</v>
       </c>
       <c r="I7" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8754243457727197</v>
+        <v>0.8821738567228905</v>
       </c>
       <c r="K7" t="n">
-        <v>481.9310194253922</v>
+        <v>478.1736626625061</v>
       </c>
       <c r="L7" t="n">
         <v>138</v>
       </c>
       <c r="M7" t="n">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="N7" t="n">
         <v>138</v>
       </c>
       <c r="O7" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="P7" t="n">
         <v>167</v>
       </c>
       <c r="Q7" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="R7" t="n">
         <v>6</v>
@@ -3045,7 +3045,7 @@
         <v>37.64306044943742</v>
       </c>
       <c r="U7" t="n">
-        <v>114.3333353722855</v>
+        <v>71.7585496385779</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -3067,61 +3067,61 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17825</v>
+        <v>17627</v>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F8" t="n">
-        <v>1639.270868660624</v>
+        <v>1030.534209573584</v>
       </c>
       <c r="G8" t="n">
-        <v>82.80134337480709</v>
+        <v>89.17472992441907</v>
       </c>
       <c r="H8" t="n">
-        <v>79.40403012442127</v>
+        <v>77.52418977325722</v>
       </c>
       <c r="I8" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8701053815841958</v>
+        <v>0.8685961700722244</v>
       </c>
       <c r="K8" t="n">
-        <v>507.6295057535172</v>
+        <v>505.2863570451736</v>
       </c>
       <c r="L8" t="n">
         <v>142</v>
       </c>
       <c r="M8" t="n">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="N8" t="n">
         <v>141</v>
       </c>
       <c r="O8" t="n">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="P8" t="n">
         <v>175</v>
       </c>
       <c r="Q8" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="R8" t="n">
-        <v>1.414213562373095</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S8" t="n">
         <v>35.4682957019364</v>
       </c>
       <c r="T8" t="n">
-        <v>36.05551275463989</v>
+        <v>35.73513677041127</v>
       </c>
       <c r="U8" t="n">
-        <v>63.74213528891063</v>
+        <v>49.93570057145406</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -3143,61 +3143,61 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18473</v>
+        <v>18554</v>
       </c>
       <c r="D9" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>1215.021343052471</v>
+        <v>706.6244676309939</v>
       </c>
       <c r="G9" t="n">
-        <v>84.17033517584564</v>
+        <v>90.25727412441063</v>
       </c>
       <c r="H9" t="n">
-        <v>79.51100552753688</v>
+        <v>78.77182237323191</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8729695434368266</v>
+        <v>0.8686962724404709</v>
       </c>
       <c r="K9" t="n">
-        <v>515.9726518392563</v>
+        <v>518.3157958984375</v>
       </c>
       <c r="L9" t="n">
         <v>138</v>
       </c>
       <c r="M9" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="N9" t="n">
         <v>138</v>
       </c>
       <c r="O9" t="n">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="P9" t="n">
         <v>167</v>
       </c>
       <c r="Q9" t="n">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>32.20248437620923</v>
       </c>
       <c r="T9" t="n">
-        <v>31.78049716414141</v>
+        <v>31.38470965295043</v>
       </c>
       <c r="U9" t="n">
-        <v>38.23420451418448</v>
+        <v>68.02659462085664</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -3219,49 +3219,49 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15740</v>
+        <v>15423</v>
       </c>
       <c r="D10" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F10" t="n">
-        <v>1346.331907379388</v>
+        <v>620.2326613648095</v>
       </c>
       <c r="G10" t="n">
-        <v>84.11699051095808</v>
+        <v>89.31834827534145</v>
       </c>
       <c r="H10" t="n">
-        <v>91.35097153287424</v>
+        <v>88.95504482602435</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8895017145510644</v>
+        <v>0.8953435483324125</v>
       </c>
       <c r="K10" t="n">
-        <v>471.9310203790665</v>
+        <v>465.688379406929</v>
       </c>
       <c r="L10" t="n">
         <v>133</v>
       </c>
       <c r="M10" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="N10" t="n">
         <v>132</v>
       </c>
       <c r="O10" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="P10" t="n">
         <v>165</v>
       </c>
       <c r="Q10" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="R10" t="n">
         <v>18.02775637731995</v>
@@ -3273,7 +3273,7 @@
         <v>45.27692569068709</v>
       </c>
       <c r="U10" t="n">
-        <v>167.6948458094477</v>
+        <v>117.2792275057473</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -3295,49 +3295,49 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14811</v>
+        <v>14817</v>
       </c>
       <c r="D11" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
-        <v>56.08921464952063</v>
+        <v>56.51548460377916</v>
       </c>
       <c r="F11" t="n">
-        <v>1079.971286064897</v>
+        <v>845.0551629347501</v>
       </c>
       <c r="G11" t="n">
-        <v>82.69640488317354</v>
+        <v>88.83849486792639</v>
       </c>
       <c r="H11" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
-        <v>56.08921464952063</v>
+        <v>56.51548460377916</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8848280913436711</v>
+        <v>0.8827220727470135</v>
       </c>
       <c r="K11" t="n">
-        <v>458.85995221138</v>
+        <v>459.4457383155823</v>
       </c>
       <c r="L11" t="n">
         <v>140</v>
       </c>
       <c r="M11" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N11" t="n">
         <v>136</v>
       </c>
       <c r="O11" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="P11" t="n">
         <v>172</v>
       </c>
       <c r="Q11" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="R11" t="n">
         <v>17.46424919657298</v>
@@ -3349,7 +3349,7 @@
         <v>36.34556369077249</v>
       </c>
       <c r="U11" t="n">
-        <v>15.68590592006642</v>
+        <v>36.6460025085579</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -3371,61 +3371,61 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19867</v>
+        <v>19852</v>
       </c>
       <c r="D12" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F12" t="n">
-        <v>1204.972295714379</v>
+        <v>561.1195741930545</v>
       </c>
       <c r="G12" t="n">
-        <v>78.13467670814042</v>
+        <v>83.36794203493498</v>
       </c>
       <c r="H12" t="n">
-        <v>79.40403012442127</v>
+        <v>77.10382610480494</v>
       </c>
       <c r="I12" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8872288150877254</v>
+        <v>0.891459807874054</v>
       </c>
       <c r="K12" t="n">
-        <v>530.801078081131</v>
+        <v>529.3868643045425</v>
       </c>
       <c r="L12" t="n">
         <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="N12" t="n">
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="P12" t="n">
         <v>162</v>
       </c>
       <c r="Q12" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
         <v>35.4400902933387</v>
       </c>
       <c r="T12" t="n">
-        <v>34.92849839314596</v>
+        <v>34.71310991541957</v>
       </c>
       <c r="U12" t="n">
-        <v>26.08294572142243</v>
+        <v>53.03094621516579</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -3447,61 +3447,61 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19438</v>
+        <v>19508</v>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F13" t="n">
-        <v>1094.94498230278</v>
+        <v>581.4077306521207</v>
       </c>
       <c r="G13" t="n">
-        <v>78.34999479491934</v>
+        <v>84.77966896224518</v>
       </c>
       <c r="H13" t="n">
-        <v>80.04998438475801</v>
+        <v>78.33900688673555</v>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8881949542634862</v>
+        <v>0.8914344597662289</v>
       </c>
       <c r="K13" t="n">
-        <v>524.8010777235031</v>
+        <v>524.8010778427124</v>
       </c>
       <c r="L13" t="n">
         <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="N13" t="n">
         <v>137</v>
       </c>
       <c r="O13" t="n">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="P13" t="n">
         <v>167</v>
       </c>
       <c r="Q13" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="R13" t="n">
-        <v>2.23606797749979</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="S13" t="n">
         <v>34.88552708502482</v>
       </c>
       <c r="T13" t="n">
-        <v>33.1058907144937</v>
+        <v>32.69556544854363</v>
       </c>
       <c r="U13" t="n">
-        <v>14.50082829915261</v>
+        <v>16.3174241761535</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -3523,49 +3523,49 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19383</v>
+        <v>19288</v>
       </c>
       <c r="D14" t="n">
         <v>140</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F14" t="n">
-        <v>1550.723819929543</v>
+        <v>1062.588945066442</v>
       </c>
       <c r="G14" t="n">
-        <v>87.67521227084154</v>
+        <v>94.3419898822023</v>
       </c>
       <c r="H14" t="n">
-        <v>78.02563681252464</v>
+        <v>77.02596964660685</v>
       </c>
       <c r="I14" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8831653636044153</v>
+        <v>0.8841817020999116</v>
       </c>
       <c r="K14" t="n">
-        <v>525.5289988517761</v>
+        <v>523.8721454143524</v>
       </c>
       <c r="L14" t="n">
         <v>142</v>
       </c>
       <c r="M14" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="N14" t="n">
         <v>143</v>
       </c>
       <c r="O14" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="P14" t="n">
         <v>177</v>
       </c>
       <c r="Q14" t="n">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="R14" t="n">
         <v>2.23606797749979</v>
@@ -3577,7 +3577,7 @@
         <v>35.17101079013795</v>
       </c>
       <c r="U14" t="n">
-        <v>57.82567437647621</v>
+        <v>11.76047977580445</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3599,61 +3599,61 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16055</v>
+        <v>15663</v>
       </c>
       <c r="D15" t="n">
         <v>132</v>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F15" t="n">
-        <v>1473.084542322523</v>
+        <v>870.7875603962856</v>
       </c>
       <c r="G15" t="n">
-        <v>85.45709717558559</v>
+        <v>91.79803432683285</v>
       </c>
       <c r="H15" t="n">
-        <v>86.37129152675674</v>
+        <v>81.39410298049853</v>
       </c>
       <c r="I15" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8913954236996003</v>
+        <v>0.8861270081004892</v>
       </c>
       <c r="K15" t="n">
-        <v>476.3157958984375</v>
+        <v>471.8305139541626</v>
       </c>
       <c r="L15" t="n">
         <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="N15" t="n">
         <v>144</v>
       </c>
       <c r="O15" t="n">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="P15" t="n">
         <v>174</v>
       </c>
       <c r="Q15" t="n">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="R15" t="n">
-        <v>15.52417469626002</v>
+        <v>13.60147050873544</v>
       </c>
       <c r="S15" t="n">
-        <v>38.47076812334269</v>
+        <v>38.94868418830089</v>
       </c>
       <c r="T15" t="n">
-        <v>44.59820624195552</v>
+        <v>43.86342439892262</v>
       </c>
       <c r="U15" t="n">
-        <v>165.2511435173566</v>
+        <v>96.77513288681921</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3675,61 +3675,61 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16050</v>
+        <v>15823</v>
       </c>
       <c r="D16" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F16" t="n">
-        <v>1127.9743698236</v>
+        <v>719.1019415752585</v>
       </c>
       <c r="G16" t="n">
-        <v>78.91150505583074</v>
+        <v>86.76730216557046</v>
       </c>
       <c r="H16" t="n">
-        <v>82.73451516749222</v>
+        <v>81.30190649671138</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8914842796630934</v>
+        <v>0.8831330934131006</v>
       </c>
       <c r="K16" t="n">
-        <v>476.1736617088318</v>
+        <v>475.0020875930786</v>
       </c>
       <c r="L16" t="n">
         <v>129</v>
       </c>
       <c r="M16" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N16" t="n">
         <v>133</v>
       </c>
       <c r="O16" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="P16" t="n">
         <v>162</v>
       </c>
       <c r="Q16" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="R16" t="n">
-        <v>15.52417469626002</v>
+        <v>14.56021977856104</v>
       </c>
       <c r="S16" t="n">
         <v>36.24913792078372</v>
       </c>
       <c r="T16" t="n">
-        <v>41.72529209005013</v>
+        <v>41.01219330881975</v>
       </c>
       <c r="U16" t="n">
-        <v>123.7723180860645</v>
+        <v>85.81508387488159</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3751,67 +3751,67 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17729</v>
+        <v>17605</v>
       </c>
       <c r="D17" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F17" t="n">
-        <v>1704.666666666667</v>
+        <v>1281.577357841787</v>
       </c>
       <c r="G17" t="n">
-        <v>78</v>
+        <v>86.05476536577282</v>
       </c>
       <c r="H17" t="n">
-        <v>75</v>
+        <v>76.16429609731846</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8868220489339981</v>
+        <v>0.8861221989107978</v>
       </c>
       <c r="K17" t="n">
-        <v>501.5878744125366</v>
+        <v>500.0731557607651</v>
       </c>
       <c r="L17" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M17" t="n">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="N17" t="n">
         <v>130</v>
       </c>
       <c r="O17" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="P17" t="n">
         <v>163</v>
       </c>
       <c r="Q17" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S17" t="n">
-        <v>35.84689665786984</v>
+        <v>36.76955262170047</v>
       </c>
       <c r="T17" t="n">
         <v>36.6742416417845</v>
       </c>
       <c r="U17" t="n">
-        <v>144.0070100955867</v>
+        <v>105.4483118324468</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>1</v>
@@ -3827,61 +3827,61 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18557</v>
+        <v>18558</v>
       </c>
       <c r="D18" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F18" t="n">
-        <v>1568.832460609003</v>
+        <v>955.7842584098006</v>
       </c>
       <c r="G18" t="n">
-        <v>79.07697224471228</v>
+        <v>85.47640458974745</v>
       </c>
       <c r="H18" t="n">
-        <v>80.23091673413684</v>
+        <v>79.42921376924235</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J18" t="n">
-        <v>0.887477069824135</v>
+        <v>0.8908673092550242</v>
       </c>
       <c r="K18" t="n">
-        <v>513.043719291687</v>
+        <v>512.1147867441177</v>
       </c>
       <c r="L18" t="n">
         <v>141</v>
       </c>
       <c r="M18" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="N18" t="n">
         <v>140</v>
       </c>
       <c r="O18" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="P18" t="n">
         <v>173</v>
       </c>
       <c r="Q18" t="n">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="R18" t="n">
-        <v>2.23606797749979</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="S18" t="n">
         <v>34.92849839314596</v>
       </c>
       <c r="T18" t="n">
-        <v>35.11409973215888</v>
+        <v>34.78505426185217</v>
       </c>
       <c r="U18" t="n">
-        <v>26.88247607083049</v>
+        <v>5.624160261608375</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3903,61 +3903,61 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17124</v>
+        <v>16802</v>
       </c>
       <c r="D19" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E19" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F19" t="n">
-        <v>1290.680856306628</v>
+        <v>815.1335424966792</v>
       </c>
       <c r="G19" t="n">
-        <v>81.08423075436251</v>
+        <v>88.28476533828842</v>
       </c>
       <c r="H19" t="n">
-        <v>81.25269226308751</v>
+        <v>78.85429601486528</v>
       </c>
       <c r="I19" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8847054666288666</v>
+        <v>0.8856757334461419</v>
       </c>
       <c r="K19" t="n">
-        <v>493.7300100326538</v>
+        <v>488.8010783195496</v>
       </c>
       <c r="L19" t="n">
         <v>144</v>
       </c>
       <c r="M19" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="N19" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O19" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="P19" t="n">
         <v>175</v>
       </c>
       <c r="Q19" t="n">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="R19" t="n">
-        <v>3.605551275463989</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S19" t="n">
         <v>32.57299494980466</v>
       </c>
       <c r="T19" t="n">
-        <v>36.05551275463989</v>
+        <v>34.78505426185217</v>
       </c>
       <c r="U19" t="n">
-        <v>143.710667573302</v>
+        <v>166.7913346661377</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>mittig</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mittig</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>korrekt</t>
+          <t>falsch</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>korrekt</t>
+          <t>falsch</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>bad</t>
         </is>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>korrekt</t>
+          <t>falsch</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>mittig</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mittig</t>
+          <t>schräg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4726,12 +4726,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>korrekt</t>
+          <t>falsch</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>korrekt</t>
+          <t>falsch</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>bad</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>korrekt</t>
+          <t>falsch</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/Messung/Ergebnisse/data.xlsx
+++ b/Messung/Ergebnisse/data.xlsx
@@ -1081,61 +1081,61 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18089</v>
+        <v>18239</v>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
         <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>922.6138932173186</v>
+        <v>661.7669222151502</v>
       </c>
       <c r="G2" t="n">
-        <v>83.76984007853115</v>
+        <v>80.13467670814042</v>
       </c>
       <c r="H2" t="n">
-        <v>79.30952023559341</v>
+        <v>79.40403012442127</v>
       </c>
       <c r="I2" t="n">
         <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8867339940295608</v>
+        <v>0.8900529652439405</v>
       </c>
       <c r="K2" t="n">
-        <v>506.7005727291107</v>
+        <v>507.8721452951431</v>
       </c>
       <c r="L2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M2" t="n">
         <v>128</v>
       </c>
       <c r="N2" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="O2" t="n">
         <v>128</v>
       </c>
       <c r="P2" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q2" t="n">
         <v>135</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
         <v>35.6931365951495</v>
       </c>
       <c r="T2" t="n">
-        <v>27.89265136196271</v>
+        <v>28.86173937932362</v>
       </c>
       <c r="U2" t="n">
-        <v>58.40878686291308</v>
+        <v>44.18284143909011</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16998</v>
+        <v>17233</v>
       </c>
       <c r="D3" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E3" t="n">
         <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>920.8888888888888</v>
+        <v>658.6666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>93.33333333333333</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
         <v>76</v>
@@ -1178,40 +1178,40 @@
         <v>68</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8820535090120658</v>
+        <v>0.8798787685441517</v>
       </c>
       <c r="K3" t="n">
-        <v>492.457932472229</v>
+        <v>496.4579319953918</v>
       </c>
       <c r="L3" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M3" t="n">
         <v>144</v>
       </c>
       <c r="N3" t="n">
+        <v>134</v>
+      </c>
+      <c r="O3" t="n">
         <v>145</v>
       </c>
-      <c r="O3" t="n">
-        <v>146</v>
-      </c>
       <c r="P3" t="n">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q3" t="n">
         <v>148</v>
       </c>
       <c r="R3" t="n">
-        <v>9.219544457292887</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="S3" t="n">
         <v>32.2490309931942</v>
       </c>
       <c r="T3" t="n">
-        <v>23.08679276123039</v>
+        <v>24.18677324489565</v>
       </c>
       <c r="U3" t="n">
-        <v>70.30494113113627</v>
+        <v>40.02061405911177</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1233,61 +1233,61 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17194</v>
+        <v>17417</v>
       </c>
       <c r="D4" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
         <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>864.5966956736544</v>
+        <v>667.6365893953156</v>
       </c>
       <c r="G4" t="n">
-        <v>92.67543707833094</v>
+        <v>89.68665867306026</v>
       </c>
       <c r="H4" t="n">
-        <v>76.02631123499285</v>
+        <v>75.05997601918082</v>
       </c>
       <c r="I4" t="n">
         <v>68</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8820484585259358</v>
+        <v>0.8873941339305155</v>
       </c>
       <c r="K4" t="n">
-        <v>495.286358833313</v>
+        <v>497.0437180995941</v>
       </c>
       <c r="L4" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M4" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N4" t="n">
+        <v>134</v>
+      </c>
+      <c r="O4" t="n">
         <v>145</v>
       </c>
-      <c r="O4" t="n">
-        <v>146</v>
-      </c>
       <c r="P4" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q4" t="n">
         <v>148</v>
       </c>
       <c r="R4" t="n">
-        <v>9.219544457292887</v>
+        <v>5.385164807134504</v>
       </c>
       <c r="S4" t="n">
-        <v>33.24154027718932</v>
+        <v>30.4138126514911</v>
       </c>
       <c r="T4" t="n">
-        <v>24.08318915758459</v>
+        <v>25.17935662402834</v>
       </c>
       <c r="U4" t="n">
-        <v>72.5857166398029</v>
+        <v>20.50303959884452</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1309,61 +1309,61 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16575</v>
+        <v>16456</v>
       </c>
       <c r="D5" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
-        <v>1266.045563431894</v>
+        <v>865.9962890875714</v>
       </c>
       <c r="G5" t="n">
-        <v>85.00757477955385</v>
+        <v>80.09371829870572</v>
       </c>
       <c r="H5" t="n">
-        <v>88.02272433866155</v>
+        <v>87.28115489611719</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="n">
-        <v>0.883974899707713</v>
+        <v>0.882351449944656</v>
       </c>
       <c r="K5" t="n">
-        <v>485.8305140733719</v>
+        <v>484.5168068408966</v>
       </c>
       <c r="L5" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M5" t="n">
         <v>128</v>
       </c>
       <c r="N5" t="n">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O5" t="n">
         <v>112</v>
       </c>
       <c r="P5" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Q5" t="n">
         <v>149</v>
       </c>
       <c r="R5" t="n">
-        <v>16.1245154965971</v>
+        <v>16.0312195418814</v>
       </c>
       <c r="S5" t="n">
         <v>35</v>
       </c>
       <c r="T5" t="n">
-        <v>45.22167621838005</v>
+        <v>45.80392996239515</v>
       </c>
       <c r="U5" t="n">
-        <v>130.5993342734477</v>
+        <v>109.4009339838051</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1385,61 +1385,61 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15558</v>
+        <v>15414</v>
       </c>
       <c r="D6" t="n">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>1025.526458230947</v>
+        <v>784.4326573672503</v>
       </c>
       <c r="G6" t="n">
-        <v>84.40067263813158</v>
+        <v>80.75828549422086</v>
       </c>
       <c r="H6" t="n">
-        <v>89.20201791439474</v>
+        <v>89.27485648266257</v>
       </c>
       <c r="I6" t="n">
         <v>43</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8844409595700109</v>
+        <v>0.8838998495539702</v>
       </c>
       <c r="K6" t="n">
-        <v>470.5168062448502</v>
+        <v>468.374671459198</v>
       </c>
       <c r="L6" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M6" t="n">
         <v>132</v>
       </c>
       <c r="N6" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O6" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P6" t="n">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Q6" t="n">
         <v>150</v>
       </c>
       <c r="R6" t="n">
-        <v>16.0312195418814</v>
+        <v>17.0293863659264</v>
       </c>
       <c r="S6" t="n">
         <v>34.13209633175202</v>
       </c>
       <c r="T6" t="n">
-        <v>44.04543109109048</v>
+        <v>44.82186966202994</v>
       </c>
       <c r="U6" t="n">
-        <v>125.4049977215063</v>
+        <v>107.278123664581</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1461,46 +1461,46 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15999</v>
+        <v>16060</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="n">
-        <v>152.0835737693876</v>
+        <v>82.461459506861</v>
       </c>
       <c r="G7" t="n">
-        <v>84.05900562242341</v>
+        <v>81.05268990288441</v>
       </c>
       <c r="H7" t="n">
-        <v>79.17701686727027</v>
+        <v>79.1580697086532</v>
       </c>
       <c r="I7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8821738567228905</v>
+        <v>0.8729337189397897</v>
       </c>
       <c r="K7" t="n">
-        <v>478.1736626625061</v>
+        <v>481.5878772735596</v>
       </c>
       <c r="L7" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M7" t="n">
         <v>142</v>
       </c>
       <c r="N7" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="O7" t="n">
         <v>136</v>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q7" t="n">
         <v>160</v>
@@ -1515,7 +1515,7 @@
         <v>37.64306044943742</v>
       </c>
       <c r="U7" t="n">
-        <v>71.7585496385779</v>
+        <v>44.43801920430634</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1537,19 +1537,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17627</v>
+        <v>17798</v>
       </c>
       <c r="D8" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E8" t="n">
         <v>57</v>
       </c>
       <c r="F8" t="n">
-        <v>1030.534209573584</v>
+        <v>760.5879646252665</v>
       </c>
       <c r="G8" t="n">
-        <v>89.17472992441907</v>
+        <v>85.84139659108574</v>
       </c>
       <c r="H8" t="n">
         <v>77.52418977325722</v>
@@ -1558,25 +1558,25 @@
         <v>57</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8685961700722244</v>
+        <v>0.8695954354937498</v>
       </c>
       <c r="K8" t="n">
-        <v>505.2863570451736</v>
+        <v>507.3868643045425</v>
       </c>
       <c r="L8" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M8" t="n">
         <v>134</v>
       </c>
       <c r="N8" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O8" t="n">
         <v>136</v>
       </c>
       <c r="P8" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q8" t="n">
         <v>147</v>
@@ -1591,7 +1591,7 @@
         <v>35.73513677041127</v>
       </c>
       <c r="U8" t="n">
-        <v>49.93570057145406</v>
+        <v>32.02671288452838</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1613,46 +1613,46 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18554</v>
+        <v>18476</v>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E9" t="n">
         <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>706.6244676309939</v>
+        <v>616.4228181530697</v>
       </c>
       <c r="G9" t="n">
-        <v>90.25727412441063</v>
+        <v>88.7200307062255</v>
       </c>
       <c r="H9" t="n">
-        <v>78.77182237323191</v>
+        <v>78.16009211867653</v>
       </c>
       <c r="I9" t="n">
         <v>65</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8686962724404709</v>
+        <v>0.8739092801465865</v>
       </c>
       <c r="K9" t="n">
-        <v>518.3157958984375</v>
+        <v>515.7300114631653</v>
       </c>
       <c r="L9" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M9" t="n">
         <v>143</v>
       </c>
       <c r="N9" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="O9" t="n">
         <v>145</v>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q9" t="n">
         <v>157</v>
@@ -1667,7 +1667,7 @@
         <v>31.38470965295043</v>
       </c>
       <c r="U9" t="n">
-        <v>68.02659462085664</v>
+        <v>100.4102928236402</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1689,61 +1689,61 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15423</v>
+        <v>15569</v>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E10" t="n">
         <v>59</v>
       </c>
       <c r="F10" t="n">
-        <v>620.2326613648095</v>
+        <v>453.8999440891841</v>
       </c>
       <c r="G10" t="n">
-        <v>89.31834827534145</v>
+        <v>86.27147108156602</v>
       </c>
       <c r="H10" t="n">
-        <v>88.95504482602435</v>
+        <v>88.81441324469807</v>
       </c>
       <c r="I10" t="n">
         <v>59</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8953435483324125</v>
+        <v>0.8877248139032894</v>
       </c>
       <c r="K10" t="n">
-        <v>465.688379406929</v>
+        <v>469.7888857126236</v>
       </c>
       <c r="L10" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>147</v>
       </c>
       <c r="N10" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O10" t="n">
         <v>129</v>
       </c>
       <c r="P10" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q10" t="n">
         <v>160</v>
       </c>
       <c r="R10" t="n">
-        <v>18.02775637731995</v>
+        <v>18.11077027627483</v>
       </c>
       <c r="S10" t="n">
         <v>34.53983207834109</v>
       </c>
       <c r="T10" t="n">
-        <v>45.27692569068709</v>
+        <v>46.01086828130936</v>
       </c>
       <c r="U10" t="n">
-        <v>117.2792275057473</v>
+        <v>98.34366774179095</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1765,61 +1765,61 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14817</v>
+        <v>15030</v>
       </c>
       <c r="D11" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
-        <v>56.51548460377916</v>
+        <v>57.72347875864725</v>
       </c>
       <c r="F11" t="n">
-        <v>845.0551629347501</v>
+        <v>571.2780457306322</v>
       </c>
       <c r="G11" t="n">
-        <v>88.83849486792639</v>
+        <v>85.24115958621574</v>
       </c>
       <c r="H11" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" t="n">
-        <v>56.51548460377916</v>
+        <v>57.72347875864725</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8827220727470135</v>
+        <v>0.8809638755930115</v>
       </c>
       <c r="K11" t="n">
-        <v>459.4457383155823</v>
+        <v>463.2030985355377</v>
       </c>
       <c r="L11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>138</v>
       </c>
       <c r="N11" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="O11" t="n">
         <v>155</v>
       </c>
       <c r="P11" t="n">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q11" t="n">
         <v>150</v>
       </c>
       <c r="R11" t="n">
-        <v>17.46424919657298</v>
+        <v>17.72004514666935</v>
       </c>
       <c r="S11" t="n">
         <v>34.17601498127012</v>
       </c>
       <c r="T11" t="n">
-        <v>36.34556369077249</v>
+        <v>37.33630940518894</v>
       </c>
       <c r="U11" t="n">
-        <v>36.6460025085579</v>
+        <v>60.06203326678831</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1841,61 +1841,61 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19852</v>
+        <v>19912</v>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" t="n">
-        <v>561.1195741930545</v>
+        <v>420.6208149765961</v>
       </c>
       <c r="G12" t="n">
-        <v>83.36794203493498</v>
+        <v>80.59391531017341</v>
       </c>
       <c r="H12" t="n">
-        <v>77.10382610480494</v>
+        <v>77.78174593052023</v>
       </c>
       <c r="I12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" t="n">
-        <v>0.891459807874054</v>
+        <v>0.891313577715159</v>
       </c>
       <c r="K12" t="n">
-        <v>529.3868643045425</v>
+        <v>530.2152904272079</v>
       </c>
       <c r="L12" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>134</v>
       </c>
       <c r="N12" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O12" t="n">
         <v>137</v>
       </c>
       <c r="P12" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="Q12" t="n">
         <v>144</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="S12" t="n">
         <v>35.4400902933387</v>
       </c>
       <c r="T12" t="n">
-        <v>34.71310991541957</v>
+        <v>35.6931365951495</v>
       </c>
       <c r="U12" t="n">
-        <v>53.03094621516579</v>
+        <v>85.13193112324078</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1917,61 +1917,61 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19508</v>
+        <v>19349</v>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>581.4077306521207</v>
+        <v>342.2339031356228</v>
       </c>
       <c r="G13" t="n">
-        <v>84.77966896224518</v>
+        <v>80.96150997149434</v>
       </c>
       <c r="H13" t="n">
-        <v>78.33900688673555</v>
+        <v>77.88452991448301</v>
       </c>
       <c r="I13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8914344597662289</v>
+        <v>0.88917085998787</v>
       </c>
       <c r="K13" t="n">
-        <v>524.8010778427124</v>
+        <v>523.3868647813797</v>
       </c>
       <c r="L13" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
         <v>135</v>
       </c>
       <c r="N13" t="n">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O13" t="n">
         <v>138</v>
       </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q13" t="n">
         <v>151</v>
       </c>
       <c r="R13" t="n">
-        <v>3.16227766016838</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>34.88552708502482</v>
       </c>
       <c r="T13" t="n">
-        <v>32.69556544854363</v>
+        <v>33.61547262794322</v>
       </c>
       <c r="U13" t="n">
-        <v>16.3174241761535</v>
+        <v>41.191656654138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1993,46 +1993,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19288</v>
+        <v>19223</v>
       </c>
       <c r="D14" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E14" t="n">
         <v>66</v>
       </c>
       <c r="F14" t="n">
-        <v>1062.588945066442</v>
+        <v>860.6017437088776</v>
       </c>
       <c r="G14" t="n">
-        <v>94.3419898822023</v>
+        <v>92.0021644109046</v>
       </c>
       <c r="H14" t="n">
-        <v>77.02596964660685</v>
+        <v>77.00649323271382</v>
       </c>
       <c r="I14" t="n">
         <v>66</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8841817020999116</v>
+        <v>0.8839990500610122</v>
       </c>
       <c r="K14" t="n">
-        <v>523.8721454143524</v>
+        <v>523.0437182188034</v>
       </c>
       <c r="L14" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>143</v>
       </c>
       <c r="N14" t="n">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O14" t="n">
         <v>145</v>
       </c>
       <c r="P14" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="n">
         <v>154</v>
@@ -2047,7 +2047,7 @@
         <v>35.17101079013795</v>
       </c>
       <c r="U14" t="n">
-        <v>11.76047977580445</v>
+        <v>12.85133784200579</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2069,70 +2069,70 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15663</v>
+        <v>15474</v>
       </c>
       <c r="D15" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E15" t="n">
         <v>62</v>
       </c>
       <c r="F15" t="n">
-        <v>870.7875603962856</v>
+        <v>787.7580354477274</v>
       </c>
       <c r="G15" t="n">
-        <v>91.79803432683285</v>
+        <v>91.05076586472116</v>
       </c>
       <c r="H15" t="n">
-        <v>81.39410298049853</v>
+        <v>82.15229759416349</v>
       </c>
       <c r="I15" t="n">
         <v>62</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8861270081004892</v>
+        <v>0.8895414548863045</v>
       </c>
       <c r="K15" t="n">
-        <v>471.8305139541626</v>
+        <v>468.0731548070908</v>
       </c>
       <c r="L15" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O15" t="n">
         <v>130</v>
       </c>
       <c r="P15" t="n">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="Q15" t="n">
         <v>162</v>
       </c>
       <c r="R15" t="n">
-        <v>13.60147050873544</v>
+        <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>38.94868418830089</v>
+        <v>34.9857113690718</v>
       </c>
       <c r="T15" t="n">
         <v>43.86342439892262</v>
       </c>
       <c r="U15" t="n">
-        <v>96.77513288681921</v>
+        <v>111.8307167878946</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2145,61 +2145,61 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15823</v>
+        <v>15725</v>
       </c>
       <c r="D16" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E16" t="n">
         <v>57</v>
       </c>
       <c r="F16" t="n">
-        <v>719.1019415752585</v>
+        <v>433.6271756283038</v>
       </c>
       <c r="G16" t="n">
-        <v>86.76730216557046</v>
+        <v>82.2478337569144</v>
       </c>
       <c r="H16" t="n">
-        <v>81.30190649671138</v>
+        <v>81.74350127074322</v>
       </c>
       <c r="I16" t="n">
         <v>57</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8831330934131006</v>
+        <v>0.8839421412168853</v>
       </c>
       <c r="K16" t="n">
-        <v>475.0020875930786</v>
+        <v>473.3452334403992</v>
       </c>
       <c r="L16" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M16" t="n">
         <v>138</v>
       </c>
       <c r="N16" t="n">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="O16" t="n">
         <v>124</v>
       </c>
       <c r="P16" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="Q16" t="n">
         <v>153</v>
       </c>
       <c r="R16" t="n">
-        <v>14.56021977856104</v>
+        <v>14.31782106327635</v>
       </c>
       <c r="S16" t="n">
         <v>36.24913792078372</v>
       </c>
       <c r="T16" t="n">
-        <v>41.01219330881975</v>
+        <v>41.72529209005013</v>
       </c>
       <c r="U16" t="n">
-        <v>85.81508387488159</v>
+        <v>63.19521892684115</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17605</v>
+        <v>17695</v>
       </c>
       <c r="D17" t="n">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
       </c>
       <c r="F17" t="n">
-        <v>1281.577357841787</v>
+        <v>984.1646825024944</v>
       </c>
       <c r="G17" t="n">
-        <v>86.05476536577282</v>
+        <v>82.72143203243949</v>
       </c>
       <c r="H17" t="n">
         <v>76.16429609731846</v>
@@ -2242,40 +2242,40 @@
         <v>48</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8861221989107978</v>
+        <v>0.8832640568999257</v>
       </c>
       <c r="K17" t="n">
-        <v>500.0731557607651</v>
+        <v>502.0731558799744</v>
       </c>
       <c r="L17" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M17" t="n">
         <v>124</v>
       </c>
       <c r="N17" t="n">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="O17" t="n">
         <v>122</v>
       </c>
       <c r="P17" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q17" t="n">
         <v>138</v>
       </c>
       <c r="R17" t="n">
-        <v>2.23606797749979</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>36.76955262170047</v>
       </c>
       <c r="T17" t="n">
-        <v>36.6742416417845</v>
+        <v>37.57658845611187</v>
       </c>
       <c r="U17" t="n">
-        <v>105.4483118324468</v>
+        <v>97.75411323660963</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2297,61 +2297,61 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18558</v>
+        <v>18568</v>
       </c>
       <c r="D18" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>955.7842584098006</v>
+        <v>797.8759161680638</v>
       </c>
       <c r="G18" t="n">
-        <v>85.47640458974745</v>
+        <v>83.02082520166412</v>
       </c>
       <c r="H18" t="n">
-        <v>79.42921376924235</v>
+        <v>80.06247560499239</v>
       </c>
       <c r="I18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8908673092550242</v>
+        <v>0.8837094676831779</v>
       </c>
       <c r="K18" t="n">
-        <v>512.1147867441177</v>
+        <v>514.3574271202087</v>
       </c>
       <c r="L18" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M18" t="n">
         <v>129</v>
       </c>
       <c r="N18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O18" t="n">
         <v>132</v>
       </c>
       <c r="P18" t="n">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q18" t="n">
         <v>143</v>
       </c>
       <c r="R18" t="n">
-        <v>3.16227766016838</v>
+        <v>3.605551275463989</v>
       </c>
       <c r="S18" t="n">
-        <v>34.92849839314596</v>
+        <v>34.0147027033899</v>
       </c>
       <c r="T18" t="n">
         <v>34.78505426185217</v>
       </c>
       <c r="U18" t="n">
-        <v>5.624160261608375</v>
+        <v>15.85788910896613</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2373,19 +2373,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16802</v>
+        <v>16995</v>
       </c>
       <c r="D19" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E19" t="n">
         <v>59</v>
       </c>
       <c r="F19" t="n">
-        <v>815.1335424966792</v>
+        <v>579.2542003074908</v>
       </c>
       <c r="G19" t="n">
-        <v>88.28476533828842</v>
+        <v>84.95143200495509</v>
       </c>
       <c r="H19" t="n">
         <v>78.85429601486528</v>
@@ -2394,40 +2394,40 @@
         <v>59</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8856757334461419</v>
+        <v>0.8895502822041982</v>
       </c>
       <c r="K19" t="n">
-        <v>488.8010783195496</v>
+        <v>490.55843770504</v>
       </c>
       <c r="L19" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M19" t="n">
         <v>136</v>
       </c>
       <c r="N19" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O19" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P19" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q19" t="n">
         <v>146</v>
       </c>
       <c r="R19" t="n">
-        <v>2.23606797749979</v>
+        <v>3.605551275463989</v>
       </c>
       <c r="S19" t="n">
         <v>32.57299494980466</v>
       </c>
       <c r="T19" t="n">
-        <v>34.78505426185217</v>
+        <v>36.05551275463989</v>
       </c>
       <c r="U19" t="n">
-        <v>166.7913346661377</v>
+        <v>179.5884651653068</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -2450,7 +2450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2607,74 +2607,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>m_r_1.png</t>
+          <t>m_l_8.png</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18089</v>
+        <v>19640</v>
       </c>
       <c r="D2" t="n">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>922.6138932173186</v>
+        <v>1524.637799592482</v>
       </c>
       <c r="G2" t="n">
-        <v>83.76984007853115</v>
+        <v>62.54887849040555</v>
       </c>
       <c r="H2" t="n">
-        <v>79.30952023559341</v>
+        <v>77.64663547121665</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8867339940295608</v>
+        <v>0.8987215131030999</v>
       </c>
       <c r="K2" t="n">
-        <v>506.7005727291107</v>
+        <v>524.5584362745285</v>
       </c>
       <c r="L2" t="n">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M2" t="n">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="N2" t="n">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="O2" t="n">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="P2" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="S2" t="n">
-        <v>35.6931365951495</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>27.89265136196271</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>58.40878686291308</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2683,68 +2683,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>m_r_2.png</t>
+          <t>m_l_11.png</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16998</v>
+        <v>19515</v>
       </c>
       <c r="D3" t="n">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>920.8888888888888</v>
+        <v>1229.578902008179</v>
       </c>
       <c r="G3" t="n">
-        <v>93.33333333333333</v>
+        <v>61.02530429795896</v>
       </c>
       <c r="H3" t="n">
-        <v>76</v>
+        <v>79.07591289387686</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8820535090120658</v>
+        <v>0.8948047453689336</v>
       </c>
       <c r="K3" t="n">
-        <v>492.457932472229</v>
+        <v>523.9726516008377</v>
       </c>
       <c r="L3" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M3" t="n">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="O3" t="n">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="P3" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.219544457292887</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S3" t="n">
-        <v>32.2490309931942</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>23.08679276123039</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>70.30494113113627</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -2759,68 +2759,68 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>m_r_3.png</t>
+          <t>m_l_12.png</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17194</v>
+        <v>19154</v>
       </c>
       <c r="D4" t="n">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>864.5966956736544</v>
+        <v>1383.611696591294</v>
       </c>
       <c r="G4" t="n">
-        <v>92.67543707833094</v>
+        <v>62.6874918683308</v>
       </c>
       <c r="H4" t="n">
-        <v>76.02631123499285</v>
+        <v>80.06247560499239</v>
       </c>
       <c r="I4" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8820484585259358</v>
+        <v>0.9003391030393488</v>
       </c>
       <c r="K4" t="n">
-        <v>495.286358833313</v>
+        <v>517.4873700141907</v>
       </c>
       <c r="L4" t="n">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="M4" t="n">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="O4" t="n">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="P4" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.219544457292887</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="S4" t="n">
-        <v>33.24154027718932</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>24.08318915758459</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>72.5857166398029</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -2835,71 +2835,71 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>m_r_4.png</t>
+          <t>m_l_15.png</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16575</v>
+        <v>19367</v>
       </c>
       <c r="D5" t="n">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1266.045563431894</v>
+        <v>1692.545391630999</v>
       </c>
       <c r="G5" t="n">
-        <v>85.00757477955385</v>
+        <v>63.38602323621774</v>
       </c>
       <c r="H5" t="n">
-        <v>88.02272433866155</v>
+        <v>79.1580697086532</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.883974899707713</v>
+        <v>0.8967913776838671</v>
       </c>
       <c r="K5" t="n">
-        <v>485.8305140733719</v>
+        <v>521.3868637084961</v>
       </c>
       <c r="L5" t="n">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="M5" t="n">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="N5" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="O5" t="n">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="P5" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>16.1245154965971</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="S5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>45.22167621838005</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>130.5993342734477</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>1</v>
@@ -2911,71 +2911,71 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>m_r_5.png</t>
+          <t>m_l_24.png</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15558</v>
+        <v>19094</v>
       </c>
       <c r="D6" t="n">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>1025.526458230947</v>
+        <v>1191.707955143607</v>
       </c>
       <c r="G6" t="n">
-        <v>84.40067263813158</v>
+        <v>58.42623878181555</v>
       </c>
       <c r="H6" t="n">
-        <v>89.20201791439474</v>
+        <v>77.27871634544663</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8844409595700109</v>
+        <v>0.898248399063915</v>
       </c>
       <c r="K6" t="n">
-        <v>470.5168062448502</v>
+        <v>517.2447289228439</v>
       </c>
       <c r="L6" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="M6" t="n">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="N6" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="O6" t="n">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>16.0312195418814</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S6" t="n">
-        <v>34.13209633175202</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.04543109109048</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>125.4049977215063</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>1</v>
@@ -2987,65 +2987,65 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>m_r_6.png</t>
+          <t>m_r_1.png</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15999</v>
+        <v>18239</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
-        <v>152.0835737693876</v>
+        <v>661.7669222151502</v>
       </c>
       <c r="G7" t="n">
-        <v>84.05900562242341</v>
+        <v>80.13467670814042</v>
       </c>
       <c r="H7" t="n">
-        <v>79.17701686727027</v>
+        <v>79.40403012442127</v>
       </c>
       <c r="I7" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8821738567228905</v>
+        <v>0.8900529652439405</v>
       </c>
       <c r="K7" t="n">
-        <v>478.1736626625061</v>
+        <v>507.8721452951431</v>
       </c>
       <c r="L7" t="n">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="M7" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N7" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="O7" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P7" t="n">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="Q7" t="n">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
-        <v>34.13209633175202</v>
+        <v>35.6931365951495</v>
       </c>
       <c r="T7" t="n">
-        <v>37.64306044943742</v>
+        <v>28.86173937932362</v>
       </c>
       <c r="U7" t="n">
-        <v>71.7585496385779</v>
+        <v>44.18284143909011</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -3063,71 +3063,71 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>m_r_7.png</t>
+          <t>m_r_2.png</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17627</v>
+        <v>17233</v>
       </c>
       <c r="D8" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E8" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F8" t="n">
-        <v>1030.534209573584</v>
+        <v>658.6666666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>89.17472992441907</v>
+        <v>90</v>
       </c>
       <c r="H8" t="n">
-        <v>77.52418977325722</v>
+        <v>76</v>
       </c>
       <c r="I8" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8685961700722244</v>
+        <v>0.8798787685441517</v>
       </c>
       <c r="K8" t="n">
-        <v>505.2863570451736</v>
+        <v>496.4579319953918</v>
       </c>
       <c r="L8" t="n">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M8" t="n">
+        <v>144</v>
+      </c>
+      <c r="N8" t="n">
         <v>134</v>
       </c>
-      <c r="N8" t="n">
-        <v>141</v>
-      </c>
       <c r="O8" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P8" t="n">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q8" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R8" t="n">
-        <v>2.23606797749979</v>
+        <v>8.062257748298549</v>
       </c>
       <c r="S8" t="n">
-        <v>35.4682957019364</v>
+        <v>32.2490309931942</v>
       </c>
       <c r="T8" t="n">
-        <v>35.73513677041127</v>
+        <v>24.18677324489565</v>
       </c>
       <c r="U8" t="n">
-        <v>49.93570057145406</v>
+        <v>40.02061405911177</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>1</v>
@@ -3139,65 +3139,65 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>m_r_8.png</t>
+          <t>m_r_3.png</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18554</v>
+        <v>17417</v>
       </c>
       <c r="D9" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
-        <v>706.6244676309939</v>
+        <v>667.6365893953156</v>
       </c>
       <c r="G9" t="n">
-        <v>90.25727412441063</v>
+        <v>89.68665867306026</v>
       </c>
       <c r="H9" t="n">
-        <v>78.77182237323191</v>
+        <v>75.05997601918082</v>
       </c>
       <c r="I9" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8686962724404709</v>
+        <v>0.8873941339305155</v>
       </c>
       <c r="K9" t="n">
-        <v>518.3157958984375</v>
+        <v>497.0437180995941</v>
       </c>
       <c r="L9" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M9" t="n">
         <v>143</v>
       </c>
       <c r="N9" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O9" t="n">
         <v>145</v>
       </c>
       <c r="P9" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>5.385164807134504</v>
       </c>
       <c r="S9" t="n">
-        <v>32.20248437620923</v>
+        <v>30.4138126514911</v>
       </c>
       <c r="T9" t="n">
-        <v>31.38470965295043</v>
+        <v>25.17935662402834</v>
       </c>
       <c r="U9" t="n">
-        <v>68.02659462085664</v>
+        <v>20.50303959884452</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3215,65 +3215,65 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>m_r_9.png</t>
+          <t>m_r_4.png</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15423</v>
+        <v>16456</v>
       </c>
       <c r="D10" t="n">
+        <v>112</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41</v>
+      </c>
+      <c r="F10" t="n">
+        <v>865.9962890875714</v>
+      </c>
+      <c r="G10" t="n">
+        <v>80.09371829870572</v>
+      </c>
+      <c r="H10" t="n">
+        <v>87.28115489611719</v>
+      </c>
+      <c r="I10" t="n">
+        <v>41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.882351449944656</v>
+      </c>
+      <c r="K10" t="n">
+        <v>484.5168068408966</v>
+      </c>
+      <c r="L10" t="n">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>128</v>
+      </c>
+      <c r="N10" t="n">
         <v>120</v>
       </c>
-      <c r="E10" t="n">
-        <v>59</v>
-      </c>
-      <c r="F10" t="n">
-        <v>620.2326613648095</v>
-      </c>
-      <c r="G10" t="n">
-        <v>89.31834827534145</v>
-      </c>
-      <c r="H10" t="n">
-        <v>88.95504482602435</v>
-      </c>
-      <c r="I10" t="n">
-        <v>59</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8953435483324125</v>
-      </c>
-      <c r="K10" t="n">
-        <v>465.688379406929</v>
-      </c>
-      <c r="L10" t="n">
-        <v>133</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
+        <v>112</v>
+      </c>
+      <c r="P10" t="n">
         <v>147</v>
       </c>
-      <c r="N10" t="n">
-        <v>132</v>
-      </c>
-      <c r="O10" t="n">
-        <v>129</v>
-      </c>
-      <c r="P10" t="n">
-        <v>165</v>
-      </c>
       <c r="Q10" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="R10" t="n">
-        <v>18.02775637731995</v>
+        <v>16.0312195418814</v>
       </c>
       <c r="S10" t="n">
-        <v>34.53983207834109</v>
+        <v>35</v>
       </c>
       <c r="T10" t="n">
-        <v>45.27692569068709</v>
+        <v>45.80392996239515</v>
       </c>
       <c r="U10" t="n">
-        <v>117.2792275057473</v>
+        <v>109.4009339838051</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -3291,74 +3291,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>m_r_10.png</t>
+          <t>m_r_5.png</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14817</v>
+        <v>15414</v>
       </c>
       <c r="D11" t="n">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E11" t="n">
-        <v>56.51548460377916</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>845.0551629347501</v>
+        <v>784.4326573672503</v>
       </c>
       <c r="G11" t="n">
-        <v>88.83849486792639</v>
+        <v>80.75828549422086</v>
       </c>
       <c r="H11" t="n">
-        <v>83</v>
+        <v>89.27485648266257</v>
       </c>
       <c r="I11" t="n">
-        <v>56.51548460377916</v>
+        <v>43</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8827220727470135</v>
+        <v>0.8838998495539702</v>
       </c>
       <c r="K11" t="n">
-        <v>459.4457383155823</v>
+        <v>468.374671459198</v>
       </c>
       <c r="L11" t="n">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N11" t="n">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O11" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="P11" t="n">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="Q11" t="n">
         <v>150</v>
       </c>
       <c r="R11" t="n">
-        <v>17.46424919657298</v>
+        <v>17.0293863659264</v>
       </c>
       <c r="S11" t="n">
-        <v>34.17601498127012</v>
+        <v>34.13209633175202</v>
       </c>
       <c r="T11" t="n">
-        <v>36.34556369077249</v>
+        <v>44.82186966202994</v>
       </c>
       <c r="U11" t="n">
-        <v>36.6460025085579</v>
+        <v>107.278123664581</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3367,65 +3367,65 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>m_r_11.png</t>
+          <t>m_r_6.png</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19852</v>
+        <v>16060</v>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E12" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F12" t="n">
-        <v>561.1195741930545</v>
+        <v>82.461459506861</v>
       </c>
       <c r="G12" t="n">
-        <v>83.36794203493498</v>
+        <v>81.05268990288441</v>
       </c>
       <c r="H12" t="n">
-        <v>77.10382610480494</v>
+        <v>79.1580697086532</v>
       </c>
       <c r="I12" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="J12" t="n">
-        <v>0.891459807874054</v>
+        <v>0.8729337189397897</v>
       </c>
       <c r="K12" t="n">
-        <v>529.3868643045425</v>
+        <v>481.5878772735596</v>
       </c>
       <c r="L12" t="n">
         <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="N12" t="n">
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P12" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q12" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S12" t="n">
-        <v>35.4400902933387</v>
+        <v>34.13209633175202</v>
       </c>
       <c r="T12" t="n">
-        <v>34.71310991541957</v>
+        <v>37.64306044943742</v>
       </c>
       <c r="U12" t="n">
-        <v>53.03094621516579</v>
+        <v>44.43801920430634</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -3443,65 +3443,65 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>m_r_12.png</t>
+          <t>m_r_7.png</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19508</v>
+        <v>17798</v>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E13" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" t="n">
-        <v>581.4077306521207</v>
+        <v>760.5879646252665</v>
       </c>
       <c r="G13" t="n">
-        <v>84.77966896224518</v>
+        <v>85.84139659108574</v>
       </c>
       <c r="H13" t="n">
-        <v>78.33900688673555</v>
+        <v>77.52418977325722</v>
       </c>
       <c r="I13" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8914344597662289</v>
+        <v>0.8695954354937498</v>
       </c>
       <c r="K13" t="n">
-        <v>524.8010778427124</v>
+        <v>507.3868643045425</v>
       </c>
       <c r="L13" t="n">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>134</v>
+      </c>
+      <c r="N13" t="n">
+        <v>131</v>
+      </c>
+      <c r="O13" t="n">
         <v>136</v>
       </c>
-      <c r="M13" t="n">
-        <v>135</v>
-      </c>
-      <c r="N13" t="n">
-        <v>137</v>
-      </c>
-      <c r="O13" t="n">
-        <v>138</v>
-      </c>
       <c r="P13" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q13" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="R13" t="n">
-        <v>3.16227766016838</v>
+        <v>2.23606797749979</v>
       </c>
       <c r="S13" t="n">
-        <v>34.88552708502482</v>
+        <v>35.4682957019364</v>
       </c>
       <c r="T13" t="n">
-        <v>32.69556544854363</v>
+        <v>35.73513677041127</v>
       </c>
       <c r="U13" t="n">
-        <v>16.3174241761535</v>
+        <v>32.02671288452838</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -3519,71 +3519,71 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>m_r_13.png</t>
+          <t>m_r_8.png</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19288</v>
+        <v>18476</v>
       </c>
       <c r="D14" t="n">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E14" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
-        <v>1062.588945066442</v>
+        <v>616.4228181530697</v>
       </c>
       <c r="G14" t="n">
-        <v>94.3419898822023</v>
+        <v>88.7200307062255</v>
       </c>
       <c r="H14" t="n">
-        <v>77.02596964660685</v>
+        <v>78.16009211867653</v>
       </c>
       <c r="I14" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8841817020999116</v>
+        <v>0.8739092801465865</v>
       </c>
       <c r="K14" t="n">
-        <v>523.8721454143524</v>
+        <v>515.7300114631653</v>
       </c>
       <c r="L14" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>143</v>
       </c>
       <c r="N14" t="n">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O14" t="n">
         <v>145</v>
       </c>
       <c r="P14" t="n">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="Q14" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="R14" t="n">
-        <v>2.23606797749979</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>36.68787265568828</v>
+        <v>32.20248437620923</v>
       </c>
       <c r="T14" t="n">
-        <v>35.17101079013795</v>
+        <v>31.38470965295043</v>
       </c>
       <c r="U14" t="n">
-        <v>11.76047977580445</v>
+        <v>100.4102928236402</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
         <v>1</v>
@@ -3595,65 +3595,65 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>m_r_14.png</t>
+          <t>m_r_9.png</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15663</v>
+        <v>15569</v>
       </c>
       <c r="D15" t="n">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" t="n">
-        <v>870.7875603962856</v>
+        <v>453.8999440891841</v>
       </c>
       <c r="G15" t="n">
-        <v>91.79803432683285</v>
+        <v>86.27147108156602</v>
       </c>
       <c r="H15" t="n">
-        <v>81.39410298049853</v>
+        <v>88.81441324469807</v>
       </c>
       <c r="I15" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8861270081004892</v>
+        <v>0.8877248139032894</v>
       </c>
       <c r="K15" t="n">
-        <v>471.8305139541626</v>
+        <v>469.7888857126236</v>
       </c>
       <c r="L15" t="n">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="M15" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N15" t="n">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="O15" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P15" t="n">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="Q15" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R15" t="n">
-        <v>13.60147050873544</v>
+        <v>18.11077027627483</v>
       </c>
       <c r="S15" t="n">
-        <v>38.94868418830089</v>
+        <v>34.53983207834109</v>
       </c>
       <c r="T15" t="n">
-        <v>43.86342439892262</v>
+        <v>46.01086828130936</v>
       </c>
       <c r="U15" t="n">
-        <v>96.77513288681921</v>
+        <v>98.34366774179095</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3671,65 +3671,65 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>m_r_15.png</t>
+          <t>m_r_10.png</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15823</v>
+        <v>15030</v>
       </c>
       <c r="D16" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E16" t="n">
-        <v>57</v>
+        <v>57.72347875864725</v>
       </c>
       <c r="F16" t="n">
-        <v>719.1019415752585</v>
+        <v>571.2780457306322</v>
       </c>
       <c r="G16" t="n">
-        <v>86.76730216557046</v>
+        <v>85.24115958621574</v>
       </c>
       <c r="H16" t="n">
-        <v>81.30190649671138</v>
+        <v>82</v>
       </c>
       <c r="I16" t="n">
-        <v>57</v>
+        <v>57.72347875864725</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8831330934131006</v>
+        <v>0.8809638755930115</v>
       </c>
       <c r="K16" t="n">
-        <v>475.0020875930786</v>
+        <v>463.2030985355377</v>
       </c>
       <c r="L16" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M16" t="n">
         <v>138</v>
       </c>
       <c r="N16" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O16" t="n">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="P16" t="n">
         <v>162</v>
       </c>
       <c r="Q16" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R16" t="n">
-        <v>14.56021977856104</v>
+        <v>17.72004514666935</v>
       </c>
       <c r="S16" t="n">
-        <v>36.24913792078372</v>
+        <v>34.17601498127012</v>
       </c>
       <c r="T16" t="n">
-        <v>41.01219330881975</v>
+        <v>37.33630940518894</v>
       </c>
       <c r="U16" t="n">
-        <v>85.81508387488159</v>
+        <v>60.06203326678831</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3747,65 +3747,65 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>m_r_16.png</t>
+          <t>m_r_11.png</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17605</v>
+        <v>19912</v>
       </c>
       <c r="D17" t="n">
+        <v>107</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57</v>
+      </c>
+      <c r="F17" t="n">
+        <v>420.6208149765961</v>
+      </c>
+      <c r="G17" t="n">
+        <v>80.59391531017341</v>
+      </c>
+      <c r="H17" t="n">
+        <v>77.78174593052023</v>
+      </c>
+      <c r="I17" t="n">
+        <v>57</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.891313577715159</v>
+      </c>
+      <c r="K17" t="n">
+        <v>530.2152904272079</v>
+      </c>
+      <c r="L17" t="n">
+        <v>118</v>
+      </c>
+      <c r="M17" t="n">
         <v>134</v>
       </c>
-      <c r="E17" t="n">
-        <v>48</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1281.577357841787</v>
-      </c>
-      <c r="G17" t="n">
-        <v>86.05476536577282</v>
-      </c>
-      <c r="H17" t="n">
-        <v>76.16429609731846</v>
-      </c>
-      <c r="I17" t="n">
-        <v>48</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8861221989107978</v>
-      </c>
-      <c r="K17" t="n">
-        <v>500.0731557607651</v>
-      </c>
-      <c r="L17" t="n">
-        <v>129</v>
-      </c>
-      <c r="M17" t="n">
-        <v>124</v>
-      </c>
       <c r="N17" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O17" t="n">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P17" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Q17" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="R17" t="n">
-        <v>2.23606797749979</v>
+        <v>3.16227766016838</v>
       </c>
       <c r="S17" t="n">
-        <v>36.76955262170047</v>
+        <v>35.4400902933387</v>
       </c>
       <c r="T17" t="n">
-        <v>36.6742416417845</v>
+        <v>35.6931365951495</v>
       </c>
       <c r="U17" t="n">
-        <v>105.4483118324468</v>
+        <v>85.13193112324078</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -3823,68 +3823,68 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>m_r_17.png</t>
+          <t>m_r_12.png</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18558</v>
+        <v>19349</v>
       </c>
       <c r="D18" t="n">
+        <v>105</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>342.2339031356228</v>
+      </c>
+      <c r="G18" t="n">
+        <v>80.96150997149434</v>
+      </c>
+      <c r="H18" t="n">
+        <v>77.88452991448301</v>
+      </c>
+      <c r="I18" t="n">
+        <v>60</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.88917085998787</v>
+      </c>
+      <c r="K18" t="n">
+        <v>523.3868647813797</v>
+      </c>
+      <c r="L18" t="n">
         <v>126</v>
       </c>
-      <c r="E18" t="n">
-        <v>51</v>
-      </c>
-      <c r="F18" t="n">
-        <v>955.7842584098006</v>
-      </c>
-      <c r="G18" t="n">
-        <v>85.47640458974745</v>
-      </c>
-      <c r="H18" t="n">
-        <v>79.42921376924235</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8908673092550242</v>
-      </c>
-      <c r="K18" t="n">
-        <v>512.1147867441177</v>
-      </c>
-      <c r="L18" t="n">
-        <v>141</v>
-      </c>
       <c r="M18" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N18" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="O18" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P18" t="n">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="Q18" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="R18" t="n">
-        <v>3.16227766016838</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>34.92849839314596</v>
+        <v>34.88552708502482</v>
       </c>
       <c r="T18" t="n">
-        <v>34.78505426185217</v>
+        <v>33.61547262794322</v>
       </c>
       <c r="U18" t="n">
-        <v>5.624160261608375</v>
+        <v>41.191656654138</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -3899,73 +3899,453 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>m_r_18.png</t>
+          <t>m_r_13.png</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16802</v>
+        <v>19223</v>
       </c>
       <c r="D19" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E19" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F19" t="n">
-        <v>815.1335424966792</v>
+        <v>860.6017437088776</v>
       </c>
       <c r="G19" t="n">
-        <v>88.28476533828842</v>
+        <v>92.0021644109046</v>
       </c>
       <c r="H19" t="n">
-        <v>78.85429601486528</v>
+        <v>77.00649323271382</v>
       </c>
       <c r="I19" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8856757334461419</v>
+        <v>0.8839990500610122</v>
       </c>
       <c r="K19" t="n">
-        <v>488.8010783195496</v>
+        <v>523.0437182188034</v>
       </c>
       <c r="L19" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M19" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="N19" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O19" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P19" t="n">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="Q19" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="R19" t="n">
         <v>2.23606797749979</v>
       </c>
       <c r="S19" t="n">
+        <v>36.68787265568828</v>
+      </c>
+      <c r="T19" t="n">
+        <v>35.17101079013795</v>
+      </c>
+      <c r="U19" t="n">
+        <v>12.85133784200579</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>m_r_14.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>15474</v>
+      </c>
+      <c r="D20" t="n">
+        <v>129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>62</v>
+      </c>
+      <c r="F20" t="n">
+        <v>787.7580354477274</v>
+      </c>
+      <c r="G20" t="n">
+        <v>91.05076586472116</v>
+      </c>
+      <c r="H20" t="n">
+        <v>82.15229759416349</v>
+      </c>
+      <c r="I20" t="n">
+        <v>62</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8895414548863045</v>
+      </c>
+      <c r="K20" t="n">
+        <v>468.0731548070908</v>
+      </c>
+      <c r="L20" t="n">
+        <v>134</v>
+      </c>
+      <c r="M20" t="n">
+        <v>144</v>
+      </c>
+      <c r="N20" t="n">
+        <v>134</v>
+      </c>
+      <c r="O20" t="n">
+        <v>130</v>
+      </c>
+      <c r="P20" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>162</v>
+      </c>
+      <c r="R20" t="n">
+        <v>14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>34.9857113690718</v>
+      </c>
+      <c r="T20" t="n">
+        <v>43.86342439892262</v>
+      </c>
+      <c r="U20" t="n">
+        <v>111.8307167878946</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>m_r_15.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15725</v>
+      </c>
+      <c r="D21" t="n">
+        <v>108</v>
+      </c>
+      <c r="E21" t="n">
+        <v>57</v>
+      </c>
+      <c r="F21" t="n">
+        <v>433.6271756283038</v>
+      </c>
+      <c r="G21" t="n">
+        <v>82.2478337569144</v>
+      </c>
+      <c r="H21" t="n">
+        <v>81.74350127074322</v>
+      </c>
+      <c r="I21" t="n">
+        <v>57</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8839421412168853</v>
+      </c>
+      <c r="K21" t="n">
+        <v>473.3452334403992</v>
+      </c>
+      <c r="L21" t="n">
+        <v>119</v>
+      </c>
+      <c r="M21" t="n">
+        <v>138</v>
+      </c>
+      <c r="N21" t="n">
+        <v>122</v>
+      </c>
+      <c r="O21" t="n">
+        <v>124</v>
+      </c>
+      <c r="P21" t="n">
+        <v>152</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>153</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14.31782106327635</v>
+      </c>
+      <c r="S21" t="n">
+        <v>36.24913792078372</v>
+      </c>
+      <c r="T21" t="n">
+        <v>41.72529209005013</v>
+      </c>
+      <c r="U21" t="n">
+        <v>63.19521892684115</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>m_r_16.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>17695</v>
+      </c>
+      <c r="D22" t="n">
+        <v>124</v>
+      </c>
+      <c r="E22" t="n">
+        <v>48</v>
+      </c>
+      <c r="F22" t="n">
+        <v>984.1646825024944</v>
+      </c>
+      <c r="G22" t="n">
+        <v>82.72143203243949</v>
+      </c>
+      <c r="H22" t="n">
+        <v>76.16429609731846</v>
+      </c>
+      <c r="I22" t="n">
+        <v>48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8832640568999257</v>
+      </c>
+      <c r="K22" t="n">
+        <v>502.0731558799744</v>
+      </c>
+      <c r="L22" t="n">
+        <v>119</v>
+      </c>
+      <c r="M22" t="n">
+        <v>124</v>
+      </c>
+      <c r="N22" t="n">
+        <v>119</v>
+      </c>
+      <c r="O22" t="n">
+        <v>122</v>
+      </c>
+      <c r="P22" t="n">
+        <v>153</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>138</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>36.76955262170047</v>
+      </c>
+      <c r="T22" t="n">
+        <v>37.57658845611187</v>
+      </c>
+      <c r="U22" t="n">
+        <v>97.75411323660963</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>m_r_17.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>18568</v>
+      </c>
+      <c r="D23" t="n">
+        <v>119</v>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>797.8759161680638</v>
+      </c>
+      <c r="G23" t="n">
+        <v>83.02082520166412</v>
+      </c>
+      <c r="H23" t="n">
+        <v>80.06247560499239</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8837094676831779</v>
+      </c>
+      <c r="K23" t="n">
+        <v>514.3574271202087</v>
+      </c>
+      <c r="L23" t="n">
+        <v>132</v>
+      </c>
+      <c r="M23" t="n">
+        <v>129</v>
+      </c>
+      <c r="N23" t="n">
+        <v>130</v>
+      </c>
+      <c r="O23" t="n">
+        <v>132</v>
+      </c>
+      <c r="P23" t="n">
+        <v>163</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>143</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="S23" t="n">
+        <v>34.0147027033899</v>
+      </c>
+      <c r="T23" t="n">
+        <v>34.78505426185217</v>
+      </c>
+      <c r="U23" t="n">
+        <v>15.85788910896613</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>m_r_18.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>16995</v>
+      </c>
+      <c r="D24" t="n">
+        <v>117</v>
+      </c>
+      <c r="E24" t="n">
+        <v>59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>579.2542003074908</v>
+      </c>
+      <c r="G24" t="n">
+        <v>84.95143200495509</v>
+      </c>
+      <c r="H24" t="n">
+        <v>78.85429601486528</v>
+      </c>
+      <c r="I24" t="n">
+        <v>59</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8895502822041982</v>
+      </c>
+      <c r="K24" t="n">
+        <v>490.55843770504</v>
+      </c>
+      <c r="L24" t="n">
+        <v>134</v>
+      </c>
+      <c r="M24" t="n">
+        <v>136</v>
+      </c>
+      <c r="N24" t="n">
+        <v>131</v>
+      </c>
+      <c r="O24" t="n">
+        <v>134</v>
+      </c>
+      <c r="P24" t="n">
+        <v>165</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>146</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="S24" t="n">
         <v>32.57299494980466</v>
       </c>
-      <c r="T19" t="n">
-        <v>34.78505426185217</v>
-      </c>
-      <c r="U19" t="n">
-        <v>166.7913346661377</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="T24" t="n">
+        <v>36.05551275463989</v>
+      </c>
+      <c r="U24" t="n">
+        <v>179.5884651653068</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,7 +4483,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4128,7 +4508,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4233,7 +4613,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>falsch</t>
+          <t>korrekt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4258,7 +4638,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>falsch</t>
+          <t>korrekt</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4378,7 +4758,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>mittig</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4478,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4521,7 +4901,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>m_r_1.png</t>
+          <t>m_l_8.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4536,7 +4916,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>good</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4926,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>m_r_2.png</t>
+          <t>m_l_11.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4561,7 +4941,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>good</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4951,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>m_r_3.png</t>
+          <t>m_l_12.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4586,7 +4966,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>good</t>
         </is>
       </c>
     </row>
@@ -4596,12 +4976,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>m_r_4.png</t>
+          <t>m_l_15.png</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>mittig</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4611,7 +4991,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>good</t>
         </is>
       </c>
     </row>
@@ -4621,12 +5001,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>m_r_5.png</t>
+          <t>m_l_24.png</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>mittig</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4636,7 +5016,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>good</t>
         </is>
       </c>
     </row>
@@ -4646,7 +5026,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>m_r_6.png</t>
+          <t>m_r_1.png</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4671,7 +5051,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>m_r_7.png</t>
+          <t>m_r_2.png</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4696,7 +5076,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>m_r_8.png</t>
+          <t>m_r_3.png</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4721,7 +5101,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>m_r_9.png</t>
+          <t>m_r_4.png</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4731,7 +5111,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>falsch</t>
+          <t>korrekt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4746,17 +5126,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>m_r_10.png</t>
+          <t>m_r_5.png</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mittig</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>falsch</t>
+          <t>korrekt</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4771,7 +5151,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>m_r_11.png</t>
+          <t>m_r_6.png</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4796,7 +5176,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>m_r_12.png</t>
+          <t>m_r_7.png</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4821,7 +5201,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>m_r_13.png</t>
+          <t>m_r_8.png</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4846,17 +5226,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>m_r_14.png</t>
+          <t>m_r_9.png</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>schräg</t>
+          <t>rechts</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>falsch</t>
+          <t>korrekt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -4871,12 +5251,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>m_r_15.png</t>
+          <t>m_r_10.png</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rechts</t>
+          <t>mittig</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4896,7 +5276,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>m_r_16.png</t>
+          <t>m_r_11.png</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4921,7 +5301,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>m_r_17.png</t>
+          <t>m_r_12.png</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4946,20 +5326,145 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>m_r_13.png</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mittig</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>korrekt</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>m_r_14.png</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>schräg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>falsch</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>m_r_15.png</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>mittig</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>korrekt</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>m_r_16.png</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>mittig</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>korrekt</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>m_r_17.png</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mittig</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>korrekt</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>m_r_18.png</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>mittig</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>korrekt</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>bad</t>
         </is>
